--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glsvg\Google Drive\School Work\UCSD\Research\Lewis Lab\GitHub\GitHub-Projects\Project 1_ Markov Models for N-Glycosylation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glsvg\Google Drive\School Work\UCSD\Research\Lewis Lab\GitHub\Project_1_N-glycosylation_Markov_Models\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7445B8CE-AFB8-4773-9F6C-EDB0191F6826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC94E66-5FFE-4AB2-991F-35969CF953D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6616,8 +6616,8 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <v>0</v>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glsvg\Google Drive\School Work\UCSD\Research\Lewis Lab\GitHub\Project_1_N-glycosylation_Markov_Models\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC94E66-5FFE-4AB2-991F-35969CF953D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802DE81-E4F1-4EB4-BBA0-A5245267A696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MS Raw" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="238">
   <si>
     <t>(Ab4GNb2Ma3(Ab4GNb2Ma6)Mb4GNb4(Fa6)GN);Asn</t>
   </si>
@@ -744,6 +744,12 @@
   </si>
   <si>
     <t>B4galt1</t>
+  </si>
+  <si>
+    <t>St3gal4</t>
+  </si>
+  <si>
+    <t>Mgat2</t>
   </si>
 </sst>
 </file>
@@ -1132,11 +1138,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79F1460-6E20-431A-B56E-C40D026D0C16}">
-  <dimension ref="A1:F998"/>
+  <dimension ref="A1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1152,7 @@
     <col min="4" max="4" width="12.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>229</v>
       </c>
@@ -1165,8 +1171,14 @@
       <c r="F1" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1345.672</v>
       </c>
@@ -1185,8 +1197,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1375.683</v>
       </c>
@@ -1205,8 +1223,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1416.7090000000001</v>
       </c>
@@ -1225,8 +1249,14 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1549.7719999999999</v>
       </c>
@@ -1245,8 +1275,14 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1579.7829999999999</v>
       </c>
@@ -1265,8 +1301,14 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1590.799</v>
       </c>
@@ -1285,8 +1327,14 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1620.809</v>
       </c>
@@ -1305,8 +1353,14 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1661.836</v>
       </c>
@@ -1325,8 +1379,14 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1753.8720000000001</v>
       </c>
@@ -1345,8 +1405,14 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1783.8820000000001</v>
       </c>
@@ -1365,8 +1431,14 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1794.8979999999999</v>
       </c>
@@ -1385,8 +1457,14 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1824.9090000000001</v>
       </c>
@@ -1405,8 +1483,14 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1835.925</v>
       </c>
@@ -1425,8 +1509,14 @@
       <c r="F14">
         <v>0.115818541598984</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>6.6233641570409198E-3</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1865.9349999999999</v>
       </c>
@@ -1445,8 +1535,14 @@
       <c r="F15">
         <v>7.4278626066924596E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1906.962</v>
       </c>
@@ -1465,8 +1561,14 @@
       <c r="F16">
         <v>2.83528751587466E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1981.9829999999999</v>
       </c>
@@ -1485,8 +1587,14 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2040.0250000000001</v>
       </c>
@@ -1505,8 +1613,14 @@
       <c r="F18">
         <v>4.7033285094066603E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1.0335007839247399E-2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2070.0349999999999</v>
       </c>
@@ -1525,8 +1639,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>2.4317665504111599E-3</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2081.0509999999999</v>
       </c>
@@ -1545,8 +1665,14 @@
       <c r="F20">
         <v>0.147671224785138</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1.1486897257863201E-2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2111.0619999999999</v>
       </c>
@@ -1565,8 +1691,14 @@
       <c r="F21">
         <v>8.4615611801884295E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2156.0720000000001</v>
       </c>
@@ -1585,8 +1717,14 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2186.0830000000001</v>
       </c>
@@ -1605,8 +1743,14 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2244.1239999999998</v>
       </c>
@@ -1625,8 +1769,14 @@
       <c r="F24">
         <v>1.08095336542721E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>9.6854701948612898E-2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2274.1350000000002</v>
       </c>
@@ -1645,8 +1795,14 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>9.7910600582344093E-3</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2285.1509999999998</v>
       </c>
@@ -1665,8 +1821,14 @@
       <c r="F26">
         <v>5.2881065595558101E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1.100694333344E-2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2315.1619999999998</v>
       </c>
@@ -1685,8 +1847,14 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>3.0717051163088298E-3</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2326.1779999999999</v>
       </c>
@@ -1705,8 +1873,14 @@
       <c r="F28">
         <v>7.4706872618801504E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>9.4070969186958002E-3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2356.1880000000001</v>
       </c>
@@ -1725,8 +1899,14 @@
       <c r="F29">
         <v>6.6009037478956898E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>2.14379419575721E-3</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2401.1979999999999</v>
       </c>
@@ -1745,8 +1925,14 @@
       <c r="F30">
         <v>2.1781505655807901E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2431.2089999999998</v>
       </c>
@@ -1765,8 +1951,14 @@
       <c r="F31">
         <v>2.2298354942555899E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2489.2510000000002</v>
       </c>
@@ -1785,8 +1977,14 @@
       <c r="F32">
         <v>1.4368410171593999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1.8622212267622298E-2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2517.2460000000001</v>
       </c>
@@ -1805,8 +2003,14 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2519.261</v>
       </c>
@@ -1825,8 +2029,14 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>3.6476498256167401E-3</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2530.277</v>
       </c>
@@ -1845,8 +2055,14 @@
       <c r="F35">
         <v>3.3491833781269402E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>1.0974946405145101E-2</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2560.288</v>
       </c>
@@ -1865,8 +2081,14 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>2.5597542635907001E-3</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2576.2719999999999</v>
       </c>
@@ -1885,8 +2107,14 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2605.2979999999998</v>
       </c>
@@ -1905,8 +2133,14 @@
       <c r="F38">
         <v>1.3836793762367501E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>3.4236713275525498E-3</v>
+      </c>
+      <c r="H38">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2635.3090000000002</v>
       </c>
@@ -1925,8 +2159,14 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2646.3249999999998</v>
       </c>
@@ -1945,8 +2185,14 @@
       <c r="F40">
         <v>3.0390738060781498E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2676.335</v>
       </c>
@@ -1965,8 +2211,14 @@
       <c r="F41">
         <v>3.8246847219350799E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2693.3510000000001</v>
       </c>
@@ -1985,8 +2237,14 @@
       <c r="F42">
         <v>4.3119997637260403E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0.14923367356733799</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2723.3609999999999</v>
       </c>
@@ -2005,8 +2263,14 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>1.8686206124212099E-2</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2734.377</v>
       </c>
@@ -2025,8 +2289,14 @@
       <c r="F44">
         <v>1.66868484007206E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>1.4782580872236301E-2</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2762.3719999999998</v>
       </c>
@@ -2045,8 +2315,14 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2764.3879999999999</v>
       </c>
@@ -2065,8 +2341,14 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>2.84772661824465E-3</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2775.404</v>
       </c>
@@ -2085,8 +2367,14 @@
       <c r="F47">
         <v>2.5104108213473502E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2792.3829999999998</v>
       </c>
@@ -2105,8 +2393,14 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2850.424</v>
       </c>
@@ -2125,8 +2419,14 @@
       <c r="F49">
         <v>1.8458903098142299E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2880.4349999999999</v>
       </c>
@@ -2145,8 +2445,14 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2891.451</v>
       </c>
@@ -2165,8 +2471,14 @@
       <c r="F51">
         <v>2.9283203874892898E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2921.462</v>
       </c>
@@ -2185,8 +2497,14 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2938.4769999999999</v>
       </c>
@@ -2205,8 +2523,14 @@
       <c r="F53">
         <v>8.8602734871083E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>3.65404921127572E-2</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2966.4720000000002</v>
       </c>
@@ -2225,8 +2549,14 @@
       <c r="F54">
         <v>2.5620957500221499E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2968.4870000000001</v>
       </c>
@@ -2245,8 +2575,14 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>6.5593703004511502E-3</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2979.5030000000002</v>
       </c>
@@ -2265,8 +2601,14 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2996.482</v>
       </c>
@@ -2285,8 +2627,14 @@
       <c r="F57">
         <v>3.4555066599722402E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>3054.5239999999999</v>
       </c>
@@ -2305,8 +2653,14 @@
       <c r="F58">
         <v>6.46799964558906E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>6.7833487985153396E-3</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>3084.5349999999999</v>
       </c>
@@ -2325,8 +2679,14 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>3095.5509999999999</v>
       </c>
@@ -2345,8 +2705,14 @@
       <c r="F60">
         <v>2.2076848105378199E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>3125.5610000000001</v>
       </c>
@@ -2365,8 +2731,14 @@
       <c r="F61">
         <v>3.2487669452730401E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>3142.5770000000002</v>
       </c>
@@ -2385,8 +2757,14 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>0.31996928294883697</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>3172.587</v>
       </c>
@@ -2405,8 +2783,14 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>4.3675807122516203E-2</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>3183.6030000000001</v>
       </c>
@@ -2425,8 +2809,14 @@
       <c r="F64">
         <v>4.7550134380814598E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>3211.598</v>
       </c>
@@ -2445,8 +2835,14 @@
       <c r="F65">
         <v>2.2401724799905501E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>3227.5819999999999</v>
       </c>
@@ -2465,8 +2861,14 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>3241.6089999999999</v>
       </c>
@@ -2485,8 +2887,14 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>3299.6509999999998</v>
       </c>
@@ -2505,8 +2913,14 @@
       <c r="F68">
         <v>1.0336985734959701E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>2.84772661824465E-3</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>3329.6610000000001</v>
       </c>
@@ -2525,8 +2939,14 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>3340.6770000000001</v>
       </c>
@@ -2545,8 +2965,14 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>3386.67</v>
       </c>
@@ -2565,8 +2991,14 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>3387.703</v>
       </c>
@@ -2585,8 +3017,14 @@
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>4.99152081400186E-3</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>3415.6979999999999</v>
       </c>
@@ -2605,8 +3043,14 @@
       <c r="F73">
         <v>1.5978026521751999E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>3417.7130000000002</v>
       </c>
@@ -2625,8 +3069,14 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>3445.7080000000001</v>
       </c>
@@ -2645,8 +3095,14 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>3456.7240000000002</v>
       </c>
@@ -2665,8 +3121,14 @@
       <c r="F76">
         <v>2.7038601258158799E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>3486.7350000000001</v>
       </c>
@@ -2685,8 +3147,14 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>3503.75</v>
       </c>
@@ -2705,8 +3173,14 @@
       <c r="F78">
         <v>4.53350660090375E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>3.9100246376347902E-2</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>3533.761</v>
       </c>
@@ -2725,8 +3199,14 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>8.1912136434902205E-3</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>3544.777</v>
       </c>
@@ -2745,8 +3225,14 @@
       <c r="F80">
         <v>2.2593697392126202E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>3574.7869999999998</v>
       </c>
@@ -2765,8 +3251,14 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>3591.8029999999999</v>
       </c>
@@ -2785,8 +3277,14 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>7.8136498896105994E-2</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>3602.7820000000002</v>
       </c>
@@ -2805,8 +3303,14 @@
       <c r="F83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>3621.8130000000001</v>
       </c>
@@ -2825,8 +3329,14 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>1.1614884971042801E-2</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>3632.8290000000002</v>
       </c>
@@ -2845,8 +3355,14 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>3660.8240000000001</v>
       </c>
@@ -2865,8 +3381,14 @@
       <c r="F86">
         <v>2.0984081041968201E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>3689.8389999999999</v>
       </c>
@@ -2885,8 +3407,14 @@
       <c r="F87">
         <v>2.6137806786969502E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>3690.835</v>
       </c>
@@ -2905,8 +3433,14 @@
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>3744.893</v>
       </c>
@@ -2925,8 +3459,14 @@
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>3748.877</v>
       </c>
@@ -2945,8 +3485,14 @@
       <c r="F90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>3776.8719999999998</v>
       </c>
@@ -2965,8 +3511,14 @@
       <c r="F91">
         <v>2.90616970377152E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>3778.8870000000002</v>
       </c>
@@ -2985,8 +3537,14 @@
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>3806.8820000000001</v>
       </c>
@@ -3005,8 +3563,14 @@
       <c r="F93">
         <v>5.0503558876517302E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>3835.8960000000002</v>
       </c>
@@ -3025,8 +3589,14 @@
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>3836.9290000000001</v>
       </c>
@@ -3045,8 +3615,14 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>3847.9090000000001</v>
       </c>
@@ -3065,8 +3641,14 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>3864.924</v>
       </c>
@@ -3085,8 +3667,14 @@
       <c r="F97">
         <v>9.6429309784695407E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>3.8396313953860399E-3</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>3894.9349999999999</v>
       </c>
@@ -3105,8 +3693,14 @@
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>1.21588327520558E-3</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>3905.95</v>
       </c>
@@ -3125,8 +3719,14 @@
       <c r="F99">
         <v>3.2044655778375002E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>3935.9609999999998</v>
       </c>
@@ -3145,8 +3745,14 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>3952.9760000000001</v>
       </c>
@@ -3165,8 +3771,14 @@
       <c r="F101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>1.56145010079032E-2</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>3982.9870000000001</v>
       </c>
@@ -3185,8 +3797,14 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>3.8396313953860399E-3</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>3992.97</v>
       </c>
@@ -3205,8 +3823,14 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>4021.998</v>
       </c>
@@ -3225,8 +3849,14 @@
       <c r="F104">
         <v>2.3509258985794E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>4041.029</v>
       </c>
@@ -3245,8 +3875,14 @@
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>1.31187406009023E-2</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>4052.0079999999998</v>
       </c>
@@ -3265,8 +3901,14 @@
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>4071.0390000000002</v>
       </c>
@@ -3285,8 +3927,14 @@
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>3.55165904073209E-3</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>4082.0549999999998</v>
       </c>
@@ -3305,8 +3953,14 @@
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>4110.05</v>
       </c>
@@ -3325,8 +3979,14 @@
       <c r="F109">
         <v>4.17909566141942E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>4140.0609999999997</v>
       </c>
@@ -3345,8 +4005,14 @@
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>4194.1189999999997</v>
       </c>
@@ -3365,8 +4031,14 @@
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>4226.098</v>
       </c>
@@ -3385,8 +4057,14 @@
       <c r="F112">
         <v>2.38636699252784E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>4256.1080000000002</v>
       </c>
@@ -3405,8 +4083,14 @@
       <c r="F113">
         <v>4.7550134380814598E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>4285.1220000000003</v>
       </c>
@@ -3425,8 +4109,14 @@
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>4286.1549999999997</v>
       </c>
@@ -3445,8 +4135,14 @@
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>4314.1499999999996</v>
       </c>
@@ -3465,8 +4161,14 @@
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>2.5597542635907001E-3</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>4344.1610000000001</v>
       </c>
@@ -3485,8 +4187,14 @@
       <c r="F117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>1.27987713179535E-3</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>4355.1769999999997</v>
       </c>
@@ -3505,8 +4213,14 @@
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>4357.192</v>
       </c>
@@ -3525,8 +4239,14 @@
       <c r="F119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>4402.2020000000002</v>
       </c>
@@ -3545,8 +4265,14 @@
       <c r="F120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>4.1276037500400002E-3</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>4413.1819999999998</v>
       </c>
@@ -3565,8 +4291,14 @@
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>4432.2129999999997</v>
       </c>
@@ -3585,8 +4317,14 @@
       <c r="F122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>1.7278341279237199E-3</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>4443.2290000000003</v>
       </c>
@@ -3605,8 +4343,14 @@
       <c r="F123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>4471.2240000000002</v>
       </c>
@@ -3625,8 +4369,14 @@
       <c r="F124">
         <v>2.6580820461324902E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>4490.2550000000001</v>
       </c>
@@ -3645,8 +4395,14 @@
       <c r="F125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>1.5038556298595301E-3</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>4501.2340000000004</v>
       </c>
@@ -3665,8 +4421,14 @@
       <c r="F126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>4520.2650000000003</v>
       </c>
@@ -3685,8 +4447,14 @@
       <c r="F127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>4531.2809999999999</v>
       </c>
@@ -3705,8 +4473,14 @@
       <c r="F128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>4555.2929999999997</v>
       </c>
@@ -3725,8 +4499,14 @@
       <c r="F129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>4559.2759999999998</v>
       </c>
@@ -3745,8 +4525,14 @@
       <c r="F130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>4572.308</v>
       </c>
@@ -3765,8 +4551,14 @@
       <c r="F131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>4587.2709999999997</v>
       </c>
@@ -3785,8 +4577,14 @@
       <c r="F132">
         <v>3.5573998050739797E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>4617.2820000000002</v>
       </c>
@@ -3805,8 +4603,14 @@
       <c r="F133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>4647.3289999999997</v>
       </c>
@@ -3825,8 +4629,14 @@
       <c r="F134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>4675.3239999999996</v>
       </c>
@@ -3845,8 +4655,14 @@
       <c r="F135">
         <v>5.7001092767063402E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>4705.3339999999998</v>
       </c>
@@ -3865,8 +4681,14 @@
       <c r="F136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>4763.3760000000002</v>
       </c>
@@ -3885,8 +4707,14 @@
       <c r="F137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>1.27987713179535E-3</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>4851.4290000000001</v>
       </c>
@@ -3905,8 +4733,14 @@
       <c r="F138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>4862.4080000000004</v>
       </c>
@@ -3925,8 +4759,14 @@
       <c r="F139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>4939.4809999999998</v>
       </c>
@@ -3945,8 +4785,14 @@
       <c r="F140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>5036.4970000000003</v>
       </c>
@@ -3965,8 +4811,14 @@
       <c r="F141">
         <v>6.7485749726808198E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>5066.5079999999998</v>
       </c>
@@ -3985,8 +4837,14 @@
       <c r="F142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>5124.55</v>
       </c>
@@ -4005,8 +4863,14 @@
       <c r="F143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>5311.634</v>
       </c>
@@ -4025,8 +4889,14 @@
       <c r="F144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>5485.723</v>
       </c>
@@ -4045,50 +4915,56 @@
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D160" s="5"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
@@ -6613,11 +7489,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D181BB55-1721-479D-B6E7-827B5414364F}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6626,7 +7502,7 @@
     <col min="2" max="2" width="103.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
@@ -6645,8 +7521,14 @@
       <c r="F1" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2244.1239999999998</v>
       </c>
@@ -6665,8 +7547,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2605.2979999999998</v>
       </c>
@@ -6685,8 +7573,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2966.4720000000002</v>
       </c>
@@ -6705,8 +7599,14 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3415.6979999999999</v>
       </c>
@@ -6725,8 +7625,14 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3864.924</v>
       </c>
@@ -6745,8 +7651,14 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4226.098</v>
       </c>
@@ -6765,8 +7677,14 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4587.2709999999997</v>
       </c>
@@ -6785,8 +7703,14 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5036.4970000000003</v>
       </c>
@@ -6805,8 +7729,14 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5485.723</v>
       </c>
@@ -6825,8 +7755,14 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3776.8719999999998</v>
       </c>
@@ -6845,8 +7781,14 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1375.683</v>
       </c>
@@ -6865,8 +7807,14 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1579.7829999999999</v>
       </c>
@@ -6885,8 +7833,14 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1753.8720000000001</v>
       </c>
@@ -6905,8 +7859,14 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2489.2510000000002</v>
       </c>
@@ -6925,8 +7885,14 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2693.3510000000001</v>
       </c>
@@ -6945,8 +7911,14 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2938.4769999999999</v>
       </c>
@@ -6965,8 +7937,14 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3142.5770000000002</v>
       </c>
@@ -6985,8 +7963,14 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3503.75</v>
       </c>
@@ -7005,8 +7989,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3591.8029999999999</v>
       </c>
@@ -7025,8 +8015,14 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3952.9760000000001</v>
       </c>
@@ -7045,8 +8041,14 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4402.2020000000002</v>
       </c>
@@ -7065,8 +8067,14 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1835.925</v>
       </c>
@@ -7085,8 +8093,14 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2081.0509999999999</v>
       </c>
@@ -7105,8 +8119,14 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2326.1779999999999</v>
       </c>
@@ -7125,8 +8145,14 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2530.277</v>
       </c>
@@ -7145,8 +8171,14 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2891.451</v>
       </c>
@@ -7165,8 +8197,14 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3456.7240000000002</v>
       </c>
@@ -7185,8 +8223,14 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4021.998</v>
       </c>
@@ -7205,8 +8249,14 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1794.8979999999999</v>
       </c>
@@ -7225,8 +8275,14 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2156.0720000000001</v>
       </c>
@@ -7245,8 +8301,14 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2401.1979999999999</v>
       </c>
@@ -7265,8 +8327,14 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2605.2979999999998</v>
       </c>
@@ -7285,8 +8353,14 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2966.4720000000002</v>
       </c>
@@ -7305,8 +8379,14 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3415.6979999999999</v>
       </c>
@@ -7325,8 +8405,14 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4675.3239999999996</v>
       </c>
@@ -7345,8 +8431,14 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2792.3829999999998</v>
       </c>
@@ -7365,8 +8457,14 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3241.6089999999999</v>
       </c>
@@ -7385,8 +8483,14 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3776.8719999999998</v>
       </c>
@@ -7405,8 +8509,14 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4052.0079999999998</v>
       </c>
@@ -7425,8 +8535,14 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4413.1819999999998</v>
       </c>
@@ -7445,8 +8561,14 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4862.4080000000004</v>
       </c>
@@ -7465,8 +8587,14 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5311.634</v>
       </c>
@@ -7485,8 +8613,14 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2646.3249999999998</v>
       </c>
@@ -7505,8 +8639,14 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2401.1979999999999</v>
       </c>
@@ -7525,8 +8665,14 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2081.0509999999999</v>
       </c>
@@ -7545,8 +8691,14 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3054.5239999999999</v>
       </c>
@@ -7565,8 +8717,14 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1661.836</v>
       </c>
@@ -7585,8 +8743,14 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1416.7090000000001</v>
       </c>
@@ -7605,8 +8769,14 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1865.9349999999999</v>
       </c>
@@ -7625,8 +8795,14 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2040.0250000000001</v>
       </c>
@@ -7645,8 +8821,14 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2070.0349999999999</v>
       </c>
@@ -7665,8 +8847,14 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2605.2979999999998</v>
       </c>
@@ -7685,8 +8873,14 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2734.377</v>
       </c>
@@ -7705,8 +8899,14 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3095.5509999999999</v>
       </c>
@@ -7725,8 +8925,14 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3660.8240000000001</v>
       </c>
@@ -7745,8 +8951,14 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1590.799</v>
       </c>
@@ -7765,8 +8977,14 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3211.598</v>
       </c>
@@ -7785,8 +9003,14 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4226.098</v>
       </c>
@@ -7805,8 +9029,14 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4675.3239999999996</v>
       </c>
@@ -7825,8 +9055,14 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2693.3510000000001</v>
       </c>
@@ -7845,8 +9081,14 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3054.5239999999999</v>
       </c>
@@ -7865,8 +9107,14 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3415.6979999999999</v>
       </c>
@@ -7885,8 +9133,14 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3415.6979999999999</v>
       </c>
@@ -7905,8 +9159,14 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2040.0250000000001</v>
       </c>
@@ -7925,8 +9185,14 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2285.1509999999998</v>
       </c>
@@ -7945,8 +9211,14 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4314.1499999999996</v>
       </c>
@@ -7965,8 +9237,14 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4041.029</v>
       </c>
@@ -7985,8 +9263,14 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4490.2550000000001</v>
       </c>
@@ -8005,8 +9289,14 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4851.4290000000001</v>
       </c>
@@ -8025,8 +9315,14 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3387.703</v>
       </c>
@@ -8045,8 +9341,14 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2605.2979999999998</v>
       </c>
@@ -8065,8 +9367,14 @@
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2966.4720000000002</v>
       </c>
@@ -8085,8 +9393,14 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3054.5239999999999</v>
       </c>
@@ -8105,8 +9419,14 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3415.6979999999999</v>
       </c>
@@ -8125,8 +9445,14 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3503.75</v>
       </c>
@@ -8145,8 +9471,14 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3864.924</v>
       </c>
@@ -8165,8 +9497,14 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4226.098</v>
       </c>
@@ -8185,8 +9523,14 @@
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4675.3239999999996</v>
       </c>
@@ -8205,8 +9549,14 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5036.4970000000003</v>
       </c>
@@ -8225,8 +9575,14 @@
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5485.723</v>
       </c>
@@ -8245,8 +9601,14 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2244.1239999999998</v>
       </c>
@@ -8265,8 +9627,14 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2605.2979999999998</v>
       </c>
@@ -8285,8 +9653,14 @@
       <c r="F83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2693.3510000000001</v>
       </c>
@@ -8305,8 +9679,14 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2605.2979999999998</v>
       </c>
@@ -8325,8 +9705,14 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3864.924</v>
       </c>
@@ -8343,6 +9729,12 @@
         <v>1</v>
       </c>
       <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>0</v>
       </c>
     </row>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glsvg\Google Drive\School Work\UCSD\Research\Lewis Lab\GitHub\Project_1_N-glycosylation_Markov_Models\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glsvg\Desktop\Temp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802DE81-E4F1-4EB4-BBA0-A5245267A696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E640A-18FC-4FD7-BEF0-FBCDD2C8DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MS Raw" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="240">
   <si>
     <t>(Ab4GNb2Ma3(Ab4GNb2Ma6)Mb4GNb4(Fa6)GN);Asn</t>
   </si>
@@ -750,6 +750,12 @@
   </si>
   <si>
     <t>Mgat2</t>
+  </si>
+  <si>
+    <t>Mgat2/St3gal4/St3gal6</t>
+  </si>
+  <si>
+    <t>St3gal4/St3gal6</t>
   </si>
 </sst>
 </file>
@@ -1138,11 +1144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79F1460-6E20-431A-B56E-C40D026D0C16}">
-  <dimension ref="A1:H998"/>
+  <dimension ref="A1:J981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,9 +1156,11 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>229</v>
       </c>
@@ -1177,8 +1185,14 @@
       <c r="H1" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1345.672</v>
       </c>
@@ -1203,8 +1217,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1375.683</v>
       </c>
@@ -1229,8 +1249,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1416.7090000000001</v>
       </c>
@@ -1255,8 +1281,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1549.7719999999999</v>
       </c>
@@ -1281,8 +1313,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1579.7829999999999</v>
       </c>
@@ -1307,8 +1345,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1590.799</v>
       </c>
@@ -1333,8 +1377,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1620.809</v>
       </c>
@@ -1359,8 +1409,14 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1661.836</v>
       </c>
@@ -1385,8 +1441,14 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1753.8720000000001</v>
       </c>
@@ -1411,8 +1473,14 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1783.8820000000001</v>
       </c>
@@ -1437,8 +1505,14 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1794.8979999999999</v>
       </c>
@@ -1463,8 +1537,14 @@
       <c r="H12">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>0.53724087681084798</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1824.9090000000001</v>
       </c>
@@ -1489,8 +1569,14 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>7.2113319931746397E-2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1835.925</v>
       </c>
@@ -1515,8 +1601,14 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>6.6093853271645703E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1865.9349999999999</v>
       </c>
@@ -1541,8 +1633,14 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1906.962</v>
       </c>
@@ -1567,8 +1665,14 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1981.9829999999999</v>
       </c>
@@ -1593,8 +1697,14 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2040.0250000000001</v>
       </c>
@@ -1619,8 +1729,14 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>3.4729696622481801E-3</v>
+      </c>
+      <c r="J18">
+        <v>7.0923788703035201E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2070.0349999999999</v>
       </c>
@@ -1645,8 +1761,14 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2081.0509999999999</v>
       </c>
@@ -1671,8 +1793,14 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.5328689816462401E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2111.0619999999999</v>
       </c>
@@ -1697,8 +1825,14 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2156.0720000000001</v>
       </c>
@@ -1723,8 +1857,14 @@
       <c r="H22">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>7.9865269843821696E-2</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2186.0830000000001</v>
       </c>
@@ -1749,8 +1889,14 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>1.8400685687769001E-2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2244.1239999999998</v>
       </c>
@@ -1775,8 +1921,14 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>0.111586428601834</v>
+      </c>
+      <c r="J24">
+        <v>2.8725405460369099E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2274.1350000000002</v>
       </c>
@@ -1801,8 +1953,14 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>1.7303959585315502E-2</v>
+      </c>
+      <c r="J25">
+        <v>8.1346280949717801E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2285.1509999999998</v>
       </c>
@@ -1827,8 +1985,14 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.51253241140882E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2315.1619999999998</v>
       </c>
@@ -1853,8 +2017,14 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>5.9738675072448996E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2326.1779999999999</v>
       </c>
@@ -1879,8 +2049,14 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.0905485789821499E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2356.1880000000001</v>
       </c>
@@ -1905,8 +2081,14 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2401.1979999999999</v>
       </c>
@@ -1931,8 +2113,14 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2431.2089999999998</v>
       </c>
@@ -1957,8 +2145,14 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2489.2510000000002</v>
       </c>
@@ -1983,8 +2177,14 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2.1683868015659202E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2517.2460000000001</v>
       </c>
@@ -2009,8 +2209,14 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>4.3594207810270999E-3</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2519.261</v>
       </c>
@@ -2035,8 +2241,14 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>8.3125730845492896E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2530.277</v>
       </c>
@@ -2061,8 +2273,14 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.5176165539681701E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2560.288</v>
       </c>
@@ -2087,8 +2305,14 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>4.16899689867304E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2576.2719999999999</v>
       </c>
@@ -2113,8 +2337,14 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2605.2979999999998</v>
       </c>
@@ -2139,8 +2369,14 @@
       <c r="H38">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>6.8596708048475605E-2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2635.3090000000002</v>
       </c>
@@ -2165,8 +2401,14 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>1.43864039914767E-2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2646.3249999999998</v>
       </c>
@@ -2191,8 +2433,14 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2676.335</v>
       </c>
@@ -2217,8 +2465,14 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2693.3510000000001</v>
       </c>
@@ -2243,8 +2497,14 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>1.4349096914239899E-2</v>
+      </c>
+      <c r="J42">
+        <v>0.104453708881997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2723.3609999999999</v>
       </c>
@@ -2269,8 +2529,14 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>2.84318803290307E-3</v>
+      </c>
+      <c r="J43">
+        <v>2.4861457115257501E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2734.377</v>
       </c>
@@ -2295,8 +2561,14 @@
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1.8557120341654399E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2762.3719999999998</v>
       </c>
@@ -2321,8 +2593,14 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2764.3879999999999</v>
       </c>
@@ -2347,8 +2625,14 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>6.9398545935228E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2775.404</v>
       </c>
@@ -2373,8 +2657,14 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2792.3829999999998</v>
       </c>
@@ -2399,8 +2689,14 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2850.424</v>
       </c>
@@ -2425,8 +2721,14 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2880.4349999999999</v>
       </c>
@@ -2451,8 +2753,14 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2891.451</v>
       </c>
@@ -2477,8 +2785,14 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2921.462</v>
       </c>
@@ -2503,8 +2817,14 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2938.4769999999999</v>
       </c>
@@ -2529,8 +2849,14 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>3.0733641771315299E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2966.4720000000002</v>
       </c>
@@ -2555,8 +2881,14 @@
       <c r="H54">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>2.6297570817374199E-2</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2968.4870000000001</v>
       </c>
@@ -2581,8 +2913,14 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1.1210534343383E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2979.5030000000002</v>
       </c>
@@ -2607,8 +2945,14 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2996.482</v>
       </c>
@@ -2633,8 +2977,14 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>8.5607670457140995E-3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>3054.5239999999999</v>
       </c>
@@ -2659,8 +3009,14 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>1.1905523111050999E-2</v>
+      </c>
+      <c r="J58">
+        <v>5.1349839849509403E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>3084.5349999999999</v>
       </c>
@@ -2685,8 +3041,14 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>2.5703556533066899E-3</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>3095.5509999999999</v>
       </c>
@@ -2711,8 +3073,14 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>3125.5610000000001</v>
       </c>
@@ -2737,8 +3105,14 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>3142.5770000000002</v>
       </c>
@@ -2763,8 +3137,14 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>2.2522370957690301E-3</v>
+      </c>
+      <c r="J62">
+        <v>0.25420712796786799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>3172.587</v>
       </c>
@@ -2789,8 +3169,14 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>6.5458335451725996E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>3183.6030000000001</v>
       </c>
@@ -2815,8 +3201,14 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>3211.598</v>
       </c>
@@ -2841,8 +3233,14 @@
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>3227.5819999999999</v>
       </c>
@@ -2867,8 +3265,14 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>3241.6089999999999</v>
       </c>
@@ -2893,8 +3297,14 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>3299.6509999999998</v>
       </c>
@@ -2919,8 +3329,14 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>3329.6610000000001</v>
       </c>
@@ -2945,8 +3361,14 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>3340.6770000000001</v>
       </c>
@@ -2971,8 +3393,14 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>3386.67</v>
       </c>
@@ -2997,8 +3425,14 @@
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>3387.703</v>
       </c>
@@ -3023,8 +3457,14 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>8.7701459148914508E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>3415.6979999999999</v>
       </c>
@@ -3049,8 +3489,14 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>2.4757572146959302E-3</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>3417.7130000000002</v>
       </c>
@@ -3075,8 +3521,14 @@
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>5.9230260816513303E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>3445.7080000000001</v>
       </c>
@@ -3101,8 +3553,14 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>9.6348930384627495E-4</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>3456.7240000000002</v>
       </c>
@@ -3127,8 +3585,14 @@
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>3486.7350000000001</v>
       </c>
@@ -3153,8 +3617,14 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>3503.75</v>
       </c>
@@ -3179,8 +3649,14 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2.3488738624230999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>3533.761</v>
       </c>
@@ -3205,8 +3681,14 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>4.5597186653760703E-4</v>
+      </c>
+      <c r="J79">
+        <v>9.2531394580304006E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>3544.777</v>
       </c>
@@ -3231,8 +3713,14 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>3574.7869999999998</v>
       </c>
@@ -3257,8 +3745,14 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>3591.8029999999999</v>
       </c>
@@ -3283,8 +3777,14 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.13114545731862301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>3602.7820000000002</v>
       </c>
@@ -3309,8 +3809,14 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>3621.8130000000001</v>
       </c>
@@ -3335,8 +3841,14 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>4.0978189028420299E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>3632.8290000000002</v>
       </c>
@@ -3361,8 +3873,14 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>3660.8240000000001</v>
       </c>
@@ -3387,8 +3905,14 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>3689.8389999999999</v>
       </c>
@@ -3413,8 +3937,14 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>3690.835</v>
       </c>
@@ -3439,8 +3969,14 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>3744.893</v>
       </c>
@@ -3465,8 +4001,14 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>3748.877</v>
       </c>
@@ -3491,8 +4033,14 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>3776.8719999999998</v>
       </c>
@@ -3517,8 +4065,14 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>3778.8870000000002</v>
       </c>
@@ -3543,8 +4097,14 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>3806.8820000000001</v>
       </c>
@@ -3569,8 +4129,14 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>3835.8960000000002</v>
       </c>
@@ -3595,8 +4161,14 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>3836.9290000000001</v>
       </c>
@@ -3621,8 +4193,14 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>2.4912298540851101E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>3847.9090000000001</v>
       </c>
@@ -3647,8 +4225,14 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>3864.924</v>
       </c>
@@ -3673,8 +4257,14 @@
       <c r="H97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>2.4912298540851101E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>3894.9349999999999</v>
       </c>
@@ -3699,8 +4289,14 @@
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>3905.95</v>
       </c>
@@ -3725,8 +4321,14 @@
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>3935.9609999999998</v>
       </c>
@@ -3751,8 +4353,14 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>3952.9760000000001</v>
       </c>
@@ -3777,8 +4385,14 @@
       <c r="H101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2.1429660887691299E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>3982.9870000000001</v>
       </c>
@@ -3803,8 +4417,14 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>6.9144338807260097E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>3992.97</v>
       </c>
@@ -3829,8 +4449,14 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>4021.998</v>
       </c>
@@ -3855,8 +4481,14 @@
       <c r="H104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>4041.029</v>
       </c>
@@ -3881,8 +4513,14 @@
       <c r="H105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>3.79277034928059E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>4052.0079999999998</v>
       </c>
@@ -3907,8 +4545,14 @@
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>4071.0390000000002</v>
       </c>
@@ -3933,8 +4577,14 @@
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1.3650922771874499E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>4082.0549999999998</v>
       </c>
@@ -3959,8 +4609,14 @@
       <c r="H108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>4110.05</v>
       </c>
@@ -3985,8 +4641,14 @@
       <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>4140.0609999999997</v>
       </c>
@@ -4011,8 +4673,14 @@
       <c r="H110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>4194.1189999999997</v>
       </c>
@@ -4037,8 +4705,14 @@
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>4226.098</v>
       </c>
@@ -4063,8 +4737,14 @@
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>4256.1080000000002</v>
       </c>
@@ -4089,8 +4769,14 @@
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>4285.1220000000003</v>
       </c>
@@ -4115,8 +4801,14 @@
       <c r="H114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>4286.1549999999997</v>
       </c>
@@ -4141,8 +4833,14 @@
       <c r="H115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>4314.1499999999996</v>
       </c>
@@ -4167,8 +4865,14 @@
       <c r="H116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>2.9742233972240599E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>4344.1610000000001</v>
       </c>
@@ -4193,8 +4897,14 @@
       <c r="H117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>4355.1769999999997</v>
       </c>
@@ -4219,8 +4929,14 @@
       <c r="H118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>4357.192</v>
       </c>
@@ -4245,8 +4961,14 @@
       <c r="H119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>4402.2020000000002</v>
       </c>
@@ -4271,8 +4993,14 @@
       <c r="H120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>7.8804209670039101E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>4413.1819999999998</v>
       </c>
@@ -4297,8 +5025,14 @@
       <c r="H121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>4432.2129999999997</v>
       </c>
@@ -4323,8 +5057,14 @@
       <c r="H122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>5.2366668361380798E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>4443.2290000000003</v>
       </c>
@@ -4349,8 +5089,14 @@
       <c r="H123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>4471.2240000000002</v>
       </c>
@@ -4375,8 +5121,14 @@
       <c r="H124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>4490.2550000000001</v>
       </c>
@@ -4401,8 +5153,14 @@
       <c r="H125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>5.6179775280898901E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>4501.2340000000004</v>
       </c>
@@ -4427,8 +5185,14 @@
       <c r="H126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>4520.2650000000003</v>
       </c>
@@ -4453,8 +5217,14 @@
       <c r="H127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>5.0333011337637904E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>4531.2809999999999</v>
       </c>
@@ -4479,8 +5249,14 @@
       <c r="H128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>4555.2929999999997</v>
       </c>
@@ -4505,8 +5281,14 @@
       <c r="H129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>4559.2759999999998</v>
       </c>
@@ -4531,8 +5313,14 @@
       <c r="H130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>4572.308</v>
       </c>
@@ -4557,8 +5345,14 @@
       <c r="H131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>4587.2709999999997</v>
       </c>
@@ -4583,8 +5377,14 @@
       <c r="H132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>4617.2820000000002</v>
       </c>
@@ -4609,8 +5409,14 @@
       <c r="H133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>4647.3289999999997</v>
       </c>
@@ -4635,8 +5441,14 @@
       <c r="H134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>4675.3239999999996</v>
       </c>
@@ -4661,8 +5473,14 @@
       <c r="H135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>4705.3339999999998</v>
       </c>
@@ -4687,8 +5505,14 @@
       <c r="H136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>4763.3760000000002</v>
       </c>
@@ -4713,8 +5537,14 @@
       <c r="H137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>4851.4290000000001</v>
       </c>
@@ -4739,8 +5569,14 @@
       <c r="H138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>4862.4080000000004</v>
       </c>
@@ -4765,8 +5601,14 @@
       <c r="H139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>4939.4809999999998</v>
       </c>
@@ -4791,8 +5633,14 @@
       <c r="H140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>5036.4970000000003</v>
       </c>
@@ -4817,8 +5665,14 @@
       <c r="H141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>5066.5079999999998</v>
       </c>
@@ -4843,8 +5697,14 @@
       <c r="H142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>5124.55</v>
       </c>
@@ -4869,8 +5729,14 @@
       <c r="H143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>5311.634</v>
       </c>
@@ -4895,8 +5761,14 @@
       <c r="H144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>5485.723</v>
       </c>
@@ -4921,50 +5793,56 @@
       <c r="H145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D160" s="5"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
@@ -5292,55 +6170,55 @@
       <c r="D268" s="5"/>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D269" s="5"/>
+      <c r="D269" s="6"/>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D270" s="5"/>
+      <c r="D270" s="6"/>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D271" s="5"/>
+      <c r="D271" s="6"/>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D272" s="5"/>
+      <c r="D272" s="6"/>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D273" s="5"/>
+      <c r="D273" s="6"/>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D274" s="5"/>
+      <c r="D274" s="6"/>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D275" s="5"/>
+      <c r="D275" s="6"/>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D276" s="5"/>
+      <c r="D276" s="6"/>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D277" s="5"/>
+      <c r="D277" s="6"/>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D278" s="5"/>
+      <c r="D278" s="6"/>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D279" s="5"/>
+      <c r="D279" s="6"/>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D280" s="5"/>
+      <c r="D280" s="6"/>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D281" s="5"/>
+      <c r="D281" s="6"/>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D282" s="5"/>
+      <c r="D282" s="6"/>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D283" s="5"/>
+      <c r="D283" s="6"/>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D284" s="5"/>
+      <c r="D284" s="6"/>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D285" s="5"/>
+      <c r="D285" s="6"/>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" s="6"/>
@@ -7429,57 +8307,6 @@
     </row>
     <row r="981" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D981" s="6"/>
-    </row>
-    <row r="982" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D982" s="6"/>
-    </row>
-    <row r="983" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D983" s="6"/>
-    </row>
-    <row r="984" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D984" s="6"/>
-    </row>
-    <row r="985" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D985" s="6"/>
-    </row>
-    <row r="986" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D986" s="6"/>
-    </row>
-    <row r="987" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D987" s="6"/>
-    </row>
-    <row r="988" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D988" s="6"/>
-    </row>
-    <row r="989" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D989" s="6"/>
-    </row>
-    <row r="990" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D990" s="6"/>
-    </row>
-    <row r="991" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D991" s="6"/>
-    </row>
-    <row r="992" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D992" s="6"/>
-    </row>
-    <row r="993" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D993" s="6"/>
-    </row>
-    <row r="994" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D994" s="6"/>
-    </row>
-    <row r="995" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D995" s="6"/>
-    </row>
-    <row r="996" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D996" s="6"/>
-    </row>
-    <row r="997" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D997" s="6"/>
-    </row>
-    <row r="998" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D998" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7489,20 +8316,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D181BB55-1721-479D-B6E7-827B5414364F}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="103.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
@@ -7527,8 +8356,14 @@
       <c r="H1" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2244.1239999999998</v>
       </c>
@@ -7553,8 +8388,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2605.2979999999998</v>
       </c>
@@ -7579,8 +8420,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2966.4720000000002</v>
       </c>
@@ -7605,8 +8452,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3415.6979999999999</v>
       </c>
@@ -7631,8 +8484,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3864.924</v>
       </c>
@@ -7657,8 +8516,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4226.098</v>
       </c>
@@ -7683,8 +8548,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4587.2709999999997</v>
       </c>
@@ -7709,8 +8580,14 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5036.4970000000003</v>
       </c>
@@ -7735,8 +8612,14 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5485.723</v>
       </c>
@@ -7761,8 +8644,14 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3776.8719999999998</v>
       </c>
@@ -7787,8 +8676,14 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1375.683</v>
       </c>
@@ -7813,8 +8708,14 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1579.7829999999999</v>
       </c>
@@ -7839,8 +8740,14 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1753.8720000000001</v>
       </c>
@@ -7865,8 +8772,14 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2489.2510000000002</v>
       </c>
@@ -7891,8 +8804,14 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2693.3510000000001</v>
       </c>
@@ -7917,8 +8836,14 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2938.4769999999999</v>
       </c>
@@ -7943,8 +8868,14 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3142.5770000000002</v>
       </c>
@@ -7969,8 +8900,14 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3503.75</v>
       </c>
@@ -7995,8 +8932,14 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3591.8029999999999</v>
       </c>
@@ -8021,8 +8964,14 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3952.9760000000001</v>
       </c>
@@ -8047,8 +8996,14 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4402.2020000000002</v>
       </c>
@@ -8073,8 +9028,14 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1835.925</v>
       </c>
@@ -8099,8 +9060,14 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2081.0509999999999</v>
       </c>
@@ -8125,8 +9092,14 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2326.1779999999999</v>
       </c>
@@ -8151,8 +9124,14 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2530.277</v>
       </c>
@@ -8177,8 +9156,14 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2891.451</v>
       </c>
@@ -8203,8 +9188,14 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3456.7240000000002</v>
       </c>
@@ -8229,8 +9220,14 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4021.998</v>
       </c>
@@ -8255,8 +9252,14 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1794.8979999999999</v>
       </c>
@@ -8281,8 +9284,14 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2156.0720000000001</v>
       </c>
@@ -8307,8 +9316,14 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2401.1979999999999</v>
       </c>
@@ -8333,8 +9348,14 @@
       <c r="H32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2605.2979999999998</v>
       </c>
@@ -8359,8 +9380,14 @@
       <c r="H33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2966.4720000000002</v>
       </c>
@@ -8385,8 +9412,14 @@
       <c r="H34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3415.6979999999999</v>
       </c>
@@ -8411,8 +9444,14 @@
       <c r="H35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4675.3239999999996</v>
       </c>
@@ -8437,8 +9476,14 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2792.3829999999998</v>
       </c>
@@ -8463,8 +9508,14 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3241.6089999999999</v>
       </c>
@@ -8489,8 +9540,14 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3776.8719999999998</v>
       </c>
@@ -8515,8 +9572,14 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4052.0079999999998</v>
       </c>
@@ -8541,8 +9604,14 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4413.1819999999998</v>
       </c>
@@ -8567,8 +9636,14 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4862.4080000000004</v>
       </c>
@@ -8593,8 +9668,14 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5311.634</v>
       </c>
@@ -8619,8 +9700,14 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2646.3249999999998</v>
       </c>
@@ -8645,8 +9732,14 @@
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2401.1979999999999</v>
       </c>
@@ -8671,8 +9764,14 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2081.0509999999999</v>
       </c>
@@ -8697,8 +9796,14 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3054.5239999999999</v>
       </c>
@@ -8723,8 +9828,14 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1661.836</v>
       </c>
@@ -8749,8 +9860,14 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1416.7090000000001</v>
       </c>
@@ -8775,8 +9892,14 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1865.9349999999999</v>
       </c>
@@ -8801,8 +9924,14 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2040.0250000000001</v>
       </c>
@@ -8827,8 +9956,14 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2070.0349999999999</v>
       </c>
@@ -8853,8 +9988,14 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2605.2979999999998</v>
       </c>
@@ -8879,8 +10020,14 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2734.377</v>
       </c>
@@ -8905,8 +10052,14 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3095.5509999999999</v>
       </c>
@@ -8931,8 +10084,14 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3660.8240000000001</v>
       </c>
@@ -8957,8 +10116,14 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1590.799</v>
       </c>
@@ -8983,8 +10148,14 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3211.598</v>
       </c>
@@ -9009,8 +10180,14 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4226.098</v>
       </c>
@@ -9035,8 +10212,14 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4675.3239999999996</v>
       </c>
@@ -9061,8 +10244,14 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2693.3510000000001</v>
       </c>
@@ -9087,8 +10276,14 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3054.5239999999999</v>
       </c>
@@ -9113,8 +10308,14 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3415.6979999999999</v>
       </c>
@@ -9139,8 +10340,14 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3415.6979999999999</v>
       </c>
@@ -9165,8 +10372,14 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2040.0250000000001</v>
       </c>
@@ -9191,8 +10404,14 @@
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2285.1509999999998</v>
       </c>
@@ -9217,8 +10436,14 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4314.1499999999996</v>
       </c>
@@ -9243,8 +10468,14 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4041.029</v>
       </c>
@@ -9269,8 +10500,14 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4490.2550000000001</v>
       </c>
@@ -9295,8 +10532,14 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4851.4290000000001</v>
       </c>
@@ -9321,8 +10564,14 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3387.703</v>
       </c>
@@ -9347,8 +10596,14 @@
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2605.2979999999998</v>
       </c>
@@ -9373,8 +10628,14 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2966.4720000000002</v>
       </c>
@@ -9399,8 +10660,14 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3054.5239999999999</v>
       </c>
@@ -9425,8 +10692,14 @@
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3415.6979999999999</v>
       </c>
@@ -9451,8 +10724,14 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3503.75</v>
       </c>
@@ -9477,8 +10756,14 @@
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3864.924</v>
       </c>
@@ -9503,8 +10788,14 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4226.098</v>
       </c>
@@ -9529,8 +10820,14 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4675.3239999999996</v>
       </c>
@@ -9555,8 +10852,14 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5036.4970000000003</v>
       </c>
@@ -9581,8 +10884,14 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5485.723</v>
       </c>
@@ -9607,8 +10916,14 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2244.1239999999998</v>
       </c>
@@ -9633,8 +10948,14 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2605.2979999999998</v>
       </c>
@@ -9659,8 +10980,14 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2693.3510000000001</v>
       </c>
@@ -9685,8 +11012,14 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2605.2979999999998</v>
       </c>
@@ -9711,8 +11044,14 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3864.924</v>
       </c>
@@ -9735,6 +11074,12 @@
         <v>0</v>
       </c>
       <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
         <v>0</v>
       </c>
     </row>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glsvg\Desktop\Temp\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glsvg\Desktop\With GnT branching data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E640A-18FC-4FD7-BEF0-FBCDD2C8DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33646708-C2FC-492F-953B-E116572166E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="242">
   <si>
     <t>(Ab4GNb2Ma3(Ab4GNb2Ma6)Mb4GNb4(Fa6)GN);Asn</t>
   </si>
@@ -756,6 +756,12 @@
   </si>
   <si>
     <t>St3gal4/St3gal6</t>
+  </si>
+  <si>
+    <t>B3gnt2</t>
+  </si>
+  <si>
+    <t>St3gal3</t>
   </si>
 </sst>
 </file>
@@ -1144,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79F1460-6E20-431A-B56E-C40D026D0C16}">
-  <dimension ref="A1:J981"/>
+  <dimension ref="A1:L981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,11 +1162,11 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>229</v>
       </c>
@@ -1186,13 +1192,19 @@
         <v>237</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1345.672</v>
       </c>
@@ -1223,8 +1235,14 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1375.683</v>
       </c>
@@ -1255,8 +1273,14 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1416.7090000000001</v>
       </c>
@@ -1287,8 +1311,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1549.7719999999999</v>
       </c>
@@ -1319,8 +1349,14 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1579.7829999999999</v>
       </c>
@@ -1351,8 +1387,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1590.799</v>
       </c>
@@ -1383,8 +1425,14 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1620.809</v>
       </c>
@@ -1415,8 +1463,14 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1661.836</v>
       </c>
@@ -1447,8 +1501,14 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1753.8720000000001</v>
       </c>
@@ -1479,8 +1539,14 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1783.8820000000001</v>
       </c>
@@ -1511,8 +1577,14 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1794.8979999999999</v>
       </c>
@@ -1538,13 +1610,19 @@
         <v>0.11</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0.53724087681084798</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1824.9090000000001</v>
       </c>
@@ -1570,13 +1648,19 @@
         <v>0</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>7.2113319931746397E-2</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1835.925</v>
       </c>
@@ -1605,10 +1689,16 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <v>2.0409253619703999E-2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>6.6093853271645703E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1865.9349999999999</v>
       </c>
@@ -1639,8 +1729,14 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1906.962</v>
       </c>
@@ -1671,8 +1767,14 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1981.9829999999999</v>
       </c>
@@ -1703,8 +1805,14 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2040.0250000000001</v>
       </c>
@@ -1730,13 +1838,19 @@
         <v>0</v>
       </c>
       <c r="I18">
+        <v>4.8866679550537001E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.32072447507613E-2</v>
+      </c>
+      <c r="K18">
         <v>3.4729696622481801E-3</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>7.0923788703035201E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2070.0349999999999</v>
       </c>
@@ -1767,8 +1881,14 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2081.0509999999999</v>
       </c>
@@ -1794,13 +1914,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.3748930178625701E-2</v>
       </c>
       <c r="J20">
+        <v>2.4330822247155E-2</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>1.5328689816462401E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2111.0619999999999</v>
       </c>
@@ -1831,8 +1957,14 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2156.0720000000001</v>
       </c>
@@ -1858,13 +1990,19 @@
         <v>0.44</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>7.9865269843821696E-2</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2186.0830000000001</v>
       </c>
@@ -1890,13 +2028,19 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>1.8400685687769001E-2</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2244.1239999999998</v>
       </c>
@@ -1922,13 +2066,19 @@
         <v>0</v>
       </c>
       <c r="I24">
+        <v>8.4757461141326904E-3</v>
+      </c>
+      <c r="J24">
+        <v>3.6458834214884897E-2</v>
+      </c>
+      <c r="K24">
         <v>0.111586428601834</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>2.8725405460369099E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2274.1350000000002</v>
       </c>
@@ -1954,13 +2104,19 @@
         <v>0</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>1.7303959585315502E-2</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>8.1346280949717801E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2285.1509999999998</v>
       </c>
@@ -1986,13 +2142,19 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>5.7701333480577599E-3</v>
       </c>
       <c r="J26">
+        <v>1.3367526847251201E-2</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>1.51253241140882E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2315.1619999999998</v>
       </c>
@@ -2021,10 +2183,16 @@
         <v>0</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>5.9738675072448996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2326.1779999999999</v>
       </c>
@@ -2050,13 +2218,19 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1.142983352199E-2</v>
       </c>
       <c r="J28">
+        <v>2.65320297056152E-2</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>1.0905485789821499E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2356.1880000000001</v>
       </c>
@@ -2087,8 +2261,14 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2401.1979999999999</v>
       </c>
@@ -2117,10 +2297,16 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.3195490730352097E-3</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2431.2089999999998</v>
       </c>
@@ -2151,8 +2337,14 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2489.2510000000002</v>
       </c>
@@ -2178,13 +2370,19 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>7.3161977858148602E-3</v>
       </c>
       <c r="J32">
+        <v>7.7683389432067103E-3</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>2.1683868015659202E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2517.2460000000001</v>
       </c>
@@ -2210,13 +2408,19 @@
         <v>0</v>
       </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>4.3594207810270999E-3</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2519.261</v>
       </c>
@@ -2245,10 +2449,16 @@
         <v>0</v>
       </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>8.3125730845492896E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2530.277</v>
       </c>
@@ -2274,13 +2484,19 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>7.5922807211286298E-3</v>
       </c>
       <c r="J35">
+        <v>1.3249986643158599E-2</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>1.5176165539681701E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2560.288</v>
       </c>
@@ -2309,10 +2525,16 @@
         <v>0</v>
       </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>4.16899689867304E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2576.2719999999999</v>
       </c>
@@ -2343,8 +2565,14 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2605.2979999999998</v>
       </c>
@@ -2370,13 +2598,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I38">
+        <v>1.73380083377047E-2</v>
+      </c>
+      <c r="J38">
+        <v>8.4928140193407095E-2</v>
+      </c>
+      <c r="K38">
         <v>6.8596708048475605E-2</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2635.3090000000002</v>
       </c>
@@ -2402,13 +2636,19 @@
         <v>0</v>
       </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>8.6872896297483602E-3</v>
+      </c>
+      <c r="K39">
         <v>1.43864039914767E-2</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2646.3249999999998</v>
       </c>
@@ -2434,13 +2674,19 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>6.29469092515392E-3</v>
       </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.4005983864935598E-3</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2676.335</v>
       </c>
@@ -2471,8 +2717,14 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2693.3510000000001</v>
       </c>
@@ -2498,13 +2750,19 @@
         <v>0</v>
       </c>
       <c r="I42">
+        <v>1.06568013031115E-2</v>
+      </c>
+      <c r="J42">
+        <v>1.5087888016241899E-2</v>
+      </c>
+      <c r="K42">
         <v>1.4349096914239899E-2</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>0.104453708881997</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2723.3609999999999</v>
       </c>
@@ -2530,13 +2788,19 @@
         <v>0</v>
       </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>2.84318803290307E-3</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>2.4861457115257501E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2734.377</v>
       </c>
@@ -2562,13 +2826,19 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>6.29469092515392E-3</v>
       </c>
       <c r="J44">
+        <v>7.7255970508094303E-3</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>1.8557120341654399E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2762.3719999999998</v>
       </c>
@@ -2599,8 +2869,14 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2764.3879999999999</v>
       </c>
@@ -2629,10 +2905,16 @@
         <v>0</v>
       </c>
       <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>6.9398545935228E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2775.404</v>
       </c>
@@ -2663,8 +2945,14 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2792.3829999999998</v>
       </c>
@@ -2695,8 +2983,14 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2850.424</v>
       </c>
@@ -2722,13 +3016,19 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>6.0462162833715303E-3</v>
       </c>
       <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.4094673291660003E-3</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2880.4349999999999</v>
       </c>
@@ -2759,8 +3059,14 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2891.451</v>
       </c>
@@ -2786,13 +3092,19 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>7.3161977858148602E-3</v>
       </c>
       <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.9695464016669299E-3</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2921.462</v>
       </c>
@@ -2823,8 +3135,14 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2938.4769999999999</v>
       </c>
@@ -2850,13 +3168,19 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>6.81924850225008E-3</v>
       </c>
       <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>3.0733641771315299E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2966.4720000000002</v>
       </c>
@@ -2882,13 +3206,19 @@
         <v>0.39</v>
       </c>
       <c r="I54">
+        <v>2.1313602606222899E-2</v>
+      </c>
+      <c r="J54">
+        <v>5.61094192445371E-2</v>
+      </c>
+      <c r="K54">
         <v>2.6297570817374199E-2</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2968.4870000000001</v>
       </c>
@@ -2917,10 +3247,16 @@
         <v>0</v>
       </c>
       <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
         <v>1.1210534343383E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2979.5030000000002</v>
       </c>
@@ -2951,8 +3287,14 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2996.482</v>
       </c>
@@ -2978,13 +3320,19 @@
         <v>0</v>
       </c>
       <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>6.1655179783084903E-3</v>
+      </c>
+      <c r="K57">
         <v>8.5607670457140995E-3</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>3054.5239999999999</v>
       </c>
@@ -3010,13 +3358,19 @@
         <v>0</v>
       </c>
       <c r="I58">
+        <v>2.5813754451837301E-2</v>
+      </c>
+      <c r="J58">
+        <v>3.9824758241171099E-2</v>
+      </c>
+      <c r="K58">
         <v>1.1905523111050999E-2</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>5.1349839849509403E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>3084.5349999999999</v>
       </c>
@@ -3042,13 +3396,19 @@
         <v>0</v>
       </c>
       <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>5.8876956777261296E-3</v>
+      </c>
+      <c r="K59">
         <v>2.5703556533066899E-3</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>3095.5509999999999</v>
       </c>
@@ -3074,13 +3434,19 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>5.6597001739322498E-3</v>
       </c>
       <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.7255970508094303E-3</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>3125.5610000000001</v>
       </c>
@@ -3111,8 +3477,14 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>3142.5770000000002</v>
       </c>
@@ -3138,13 +3510,19 @@
         <v>0</v>
       </c>
       <c r="I62">
+        <v>1.1043317412550701E-2</v>
+      </c>
+      <c r="J62">
+        <v>1.0129828498156799E-2</v>
+      </c>
+      <c r="K62">
         <v>2.2522370957690301E-3</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>0.25420712796786799</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>3172.587</v>
       </c>
@@ -3173,10 +3551,16 @@
         <v>0</v>
       </c>
       <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
         <v>6.5458335451725996E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>3183.6030000000001</v>
       </c>
@@ -3207,8 +3591,14 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>3211.598</v>
       </c>
@@ -3234,13 +3624,19 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>7.2057646116893501E-3</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>3227.5819999999999</v>
       </c>
@@ -3271,8 +3667,14 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>3241.6089999999999</v>
       </c>
@@ -3303,8 +3705,14 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>3299.6509999999998</v>
       </c>
@@ -3330,13 +3738,19 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>6.4327323928108004E-3</v>
       </c>
       <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.7237805203825405E-3</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>3329.6610000000001</v>
       </c>
@@ -3367,8 +3781,14 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>3340.6770000000001</v>
       </c>
@@ -3399,8 +3819,14 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>3386.67</v>
       </c>
@@ -3431,8 +3857,14 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>3387.703</v>
       </c>
@@ -3461,10 +3893,16 @@
         <v>0</v>
       </c>
       <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
         <v>8.7701459148914508E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>3415.6979999999999</v>
       </c>
@@ -3490,13 +3928,19 @@
         <v>0</v>
       </c>
       <c r="I73">
+        <v>5.9854780376024999E-2</v>
+      </c>
+      <c r="J73">
+        <v>6.2349735534540797E-2</v>
+      </c>
+      <c r="K73">
         <v>2.4757572146959302E-3</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>3417.7130000000002</v>
       </c>
@@ -3525,10 +3969,16 @@
         <v>0</v>
       </c>
       <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
         <v>5.9230260816513303E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>3445.7080000000001</v>
       </c>
@@ -3554,13 +4004,19 @@
         <v>0</v>
       </c>
       <c r="I75">
+        <v>5.5216587062753703E-3</v>
+      </c>
+      <c r="J75">
+        <v>1.1048779184698401E-2</v>
+      </c>
+      <c r="K75">
         <v>9.6348930384627495E-4</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>3456.7240000000002</v>
       </c>
@@ -3586,13 +4042,19 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>5.6597001739322498E-3</v>
       </c>
       <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.2421328204306202E-3</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>3486.7350000000001</v>
       </c>
@@ -3623,8 +4085,14 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>3503.75</v>
       </c>
@@ -3650,13 +4118,19 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1.4521962397504201E-2</v>
       </c>
       <c r="J78">
+        <v>2.9855211839504198E-2</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
         <v>2.3488738624230999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>3533.761</v>
       </c>
@@ -3682,13 +4156,19 @@
         <v>0</v>
       </c>
       <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>6.2830581824010303E-3</v>
+      </c>
+      <c r="K79">
         <v>4.5597186653760703E-4</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>9.2531394580304006E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>3544.777</v>
       </c>
@@ -3719,8 +4199,14 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>3574.7869999999998</v>
       </c>
@@ -3751,8 +4237,14 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>3591.8029999999999</v>
       </c>
@@ -3781,10 +4273,16 @@
         <v>0</v>
       </c>
       <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
         <v>0.13114545731862301</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>3602.7820000000002</v>
       </c>
@@ -3815,8 +4313,14 @@
       <c r="J83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>3621.8130000000001</v>
       </c>
@@ -3845,10 +4349,16 @@
         <v>0</v>
       </c>
       <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
         <v>4.0978189028420299E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>3632.8290000000002</v>
       </c>
@@ -3879,8 +4389,14 @@
       <c r="J85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>3660.8240000000001</v>
       </c>
@@ -3906,13 +4422,19 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1.16783081637724E-2</v>
       </c>
       <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.1283859592883499E-2</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>3689.8389999999999</v>
       </c>
@@ -3943,8 +4465,14 @@
       <c r="J87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>3690.835</v>
       </c>
@@ -3975,8 +4503,14 @@
       <c r="J88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>3744.893</v>
       </c>
@@ -4002,13 +4536,19 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3.0921288755142102E-3</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>3748.877</v>
       </c>
@@ -4039,8 +4579,14 @@
       <c r="J90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>3776.8719999999998</v>
       </c>
@@ -4066,13 +4612,19 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>9.7760967394605394E-2</v>
       </c>
       <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.6823743121226703E-2</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>3778.8870000000002</v>
       </c>
@@ -4103,8 +4655,14 @@
       <c r="J92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>3806.8820000000001</v>
       </c>
@@ -4130,13 +4688,19 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>9.7733359101074002E-3</v>
       </c>
       <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.7237805203825405E-3</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>3835.8960000000002</v>
       </c>
@@ -4167,8 +4731,14 @@
       <c r="J94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>3836.9290000000001</v>
       </c>
@@ -4197,10 +4767,16 @@
         <v>0</v>
       </c>
       <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
         <v>2.4912298540851101E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>3847.9090000000001</v>
       </c>
@@ -4231,8 +4807,14 @@
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>3864.924</v>
       </c>
@@ -4258,13 +4840,19 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>6.2560393142099893E-2</v>
       </c>
       <c r="J97">
+        <v>7.8559598226211502E-2</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
         <v>2.4912298540851101E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>3894.9349999999999</v>
       </c>
@@ -4290,13 +4878,19 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>5.1351425968360898E-3</v>
       </c>
       <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.12411177004862E-2</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>3905.95</v>
       </c>
@@ -4327,8 +4921,14 @@
       <c r="J99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>3935.9609999999998</v>
       </c>
@@ -4359,8 +4959,14 @@
       <c r="J100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>3952.9760000000001</v>
       </c>
@@ -4389,10 +4995,16 @@
         <v>0</v>
       </c>
       <c r="J101">
+        <v>6.6784206870759196E-3</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
         <v>2.1429660887691299E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>3982.9870000000001</v>
       </c>
@@ -4421,10 +5033,16 @@
         <v>0</v>
       </c>
       <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
         <v>6.9144338807260097E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>3992.97</v>
       </c>
@@ -4455,8 +5073,14 @@
       <c r="J103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>4021.998</v>
       </c>
@@ -4482,13 +5106,19 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>6.15664945749703E-3</v>
       </c>
       <c r="J104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.7229791099000903E-3</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>4041.029</v>
       </c>
@@ -4517,10 +5147,16 @@
         <v>0</v>
       </c>
       <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
         <v>3.79277034928059E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>4052.0079999999998</v>
       </c>
@@ -4551,8 +5187,14 @@
       <c r="J106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>4071.0390000000002</v>
       </c>
@@ -4581,10 +5223,16 @@
         <v>0</v>
       </c>
       <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
         <v>1.3650922771874499E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>4082.0549999999998</v>
       </c>
@@ -4615,8 +5263,14 @@
       <c r="J108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>4110.05</v>
       </c>
@@ -4647,8 +5301,14 @@
       <c r="J109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>4140.0609999999997</v>
       </c>
@@ -4679,8 +5339,14 @@
       <c r="J110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>4194.1189999999997</v>
       </c>
@@ -4706,13 +5372,19 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>4.6381933132713096E-3</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>4226.098</v>
       </c>
@@ -4738,13 +5410,19 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>0.18770878771983099</v>
       </c>
       <c r="J112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.10685473099321501</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>4256.1080000000002</v>
       </c>
@@ -4770,13 +5448,19 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1.3362414069186399E-2</v>
       </c>
       <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.8891916439600399E-2</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>4285.1220000000003</v>
       </c>
@@ -4807,8 +5491,14 @@
       <c r="J114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>4286.1549999999997</v>
       </c>
@@ -4839,8 +5529,14 @@
       <c r="J115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>4314.1499999999996</v>
       </c>
@@ -4869,10 +5565,16 @@
         <v>0</v>
       </c>
       <c r="J116">
+        <v>1.0803013303414001E-2</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
         <v>2.9742233972240599E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>4344.1610000000001</v>
       </c>
@@ -4903,8 +5605,14 @@
       <c r="J117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>4355.1769999999997</v>
       </c>
@@ -4935,8 +5643,14 @@
       <c r="J118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>4357.192</v>
       </c>
@@ -4967,8 +5681,14 @@
       <c r="J119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>4402.2020000000002</v>
       </c>
@@ -4997,10 +5717,16 @@
         <v>0</v>
       </c>
       <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
         <v>7.8804209670039101E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>4413.1819999999998</v>
       </c>
@@ -5031,8 +5757,14 @@
       <c r="J121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>4432.2129999999997</v>
       </c>
@@ -5061,10 +5793,16 @@
         <v>0</v>
       </c>
       <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
         <v>5.2366668361380798E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>4443.2290000000003</v>
       </c>
@@ -5095,8 +5833,14 @@
       <c r="J123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>4471.2240000000002</v>
       </c>
@@ -5127,8 +5871,14 @@
       <c r="J124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>4490.2550000000001</v>
       </c>
@@ -5157,10 +5907,16 @@
         <v>0</v>
       </c>
       <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
         <v>5.6179775280898901E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>4501.2340000000004</v>
       </c>
@@ -5191,8 +5947,14 @@
       <c r="J126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>4520.2650000000003</v>
       </c>
@@ -5221,10 +5983,16 @@
         <v>0</v>
       </c>
       <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
         <v>5.0333011337637904E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>4531.2809999999999</v>
       </c>
@@ -5250,13 +6018,19 @@
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>4.8866679550537001E-3</v>
       </c>
       <c r="J128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.9580595180851597E-3</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>4555.2929999999997</v>
       </c>
@@ -5282,13 +6056,19 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>3.9755942685182604E-3</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>4559.2759999999998</v>
       </c>
@@ -5319,8 +6099,14 @@
       <c r="J130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>4572.308</v>
       </c>
@@ -5346,13 +6132,19 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>7.7027138952541398E-3</v>
       </c>
       <c r="J131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.2020088689426697E-3</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>4587.2709999999997</v>
       </c>
@@ -5378,13 +6170,19 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>0.27608293531376799</v>
       </c>
       <c r="J132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.6123310359566196E-2</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>4617.2820000000002</v>
       </c>
@@ -5410,13 +6208,19 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1.9519063526683401E-2</v>
       </c>
       <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.5365710316824301E-2</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>4647.3289999999997</v>
       </c>
@@ -5442,13 +6246,19 @@
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2.9540874078573202E-3</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>4675.3239999999996</v>
       </c>
@@ -5477,10 +6287,16 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.38056312443233E-2</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>4705.3339999999998</v>
       </c>
@@ -5509,10 +6325,16 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.8832612063899102E-3</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>4763.3760000000002</v>
       </c>
@@ -5541,10 +6363,16 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.4790297590425799E-3</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>4851.4290000000001</v>
       </c>
@@ -5575,8 +6403,14 @@
       <c r="J138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>4862.4080000000004</v>
       </c>
@@ -5607,8 +6441,14 @@
       <c r="J139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>4939.4809999999998</v>
       </c>
@@ -5639,8 +6479,14 @@
       <c r="J140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>5036.4970000000003</v>
       </c>
@@ -5669,10 +6515,16 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.00016028209649E-2</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>5066.5079999999998</v>
       </c>
@@ -5701,10 +6553,16 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.8788267350536899E-3</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>5124.55</v>
       </c>
@@ -5735,8 +6593,14 @@
       <c r="J143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>5311.634</v>
       </c>
@@ -5767,8 +6631,14 @@
       <c r="J144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>5485.723</v>
       </c>
@@ -5797,52 +6667,58 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.5217716514398698E-3</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D160" s="5"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
@@ -8316,22 +9192,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D181BB55-1721-479D-B6E7-827B5414364F}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J86"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="103.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
@@ -8357,13 +9233,19 @@
         <v>237</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2244.1239999999998</v>
       </c>
@@ -8394,8 +9276,14 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2605.2979999999998</v>
       </c>
@@ -8421,13 +9309,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2966.4720000000002</v>
       </c>
@@ -8458,8 +9352,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3415.6979999999999</v>
       </c>
@@ -8485,13 +9385,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3864.924</v>
       </c>
@@ -8517,13 +9423,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4226.098</v>
       </c>
@@ -8549,13 +9461,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4587.2709999999997</v>
       </c>
@@ -8581,13 +9499,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5036.4970000000003</v>
       </c>
@@ -8616,10 +9540,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5485.723</v>
       </c>
@@ -8650,8 +9580,14 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3776.8719999999998</v>
       </c>
@@ -8677,13 +9613,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1375.683</v>
       </c>
@@ -8714,8 +9656,14 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1579.7829999999999</v>
       </c>
@@ -8746,8 +9694,14 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1753.8720000000001</v>
       </c>
@@ -8778,8 +9732,14 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2489.2510000000002</v>
       </c>
@@ -8808,10 +9768,16 @@
         <v>0</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2693.3510000000001</v>
       </c>
@@ -8840,10 +9806,16 @@
         <v>0</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2938.4769999999999</v>
       </c>
@@ -8872,10 +9844,16 @@
         <v>0</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3142.5770000000002</v>
       </c>
@@ -8904,10 +9882,16 @@
         <v>0</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3503.75</v>
       </c>
@@ -8938,8 +9922,14 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3591.8029999999999</v>
       </c>
@@ -8968,10 +9958,16 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3952.9760000000001</v>
       </c>
@@ -9002,8 +9998,14 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4402.2020000000002</v>
       </c>
@@ -9034,8 +10036,14 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1835.925</v>
       </c>
@@ -9066,8 +10074,14 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2081.0509999999999</v>
       </c>
@@ -9098,8 +10112,14 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2326.1779999999999</v>
       </c>
@@ -9130,8 +10150,14 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2530.277</v>
       </c>
@@ -9162,8 +10188,14 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2891.451</v>
       </c>
@@ -9194,8 +10226,14 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3456.7240000000002</v>
       </c>
@@ -9226,8 +10264,14 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4021.998</v>
       </c>
@@ -9258,8 +10302,14 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1794.8979999999999</v>
       </c>
@@ -9285,13 +10335,19 @@
         <v>0</v>
       </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2156.0720000000001</v>
       </c>
@@ -9317,13 +10373,19 @@
         <v>0</v>
       </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2401.1979999999999</v>
       </c>
@@ -9354,8 +10416,14 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2605.2979999999998</v>
       </c>
@@ -9386,8 +10454,14 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2966.4720000000002</v>
       </c>
@@ -9413,13 +10487,19 @@
         <v>1</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3415.6979999999999</v>
       </c>
@@ -9450,8 +10530,14 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4675.3239999999996</v>
       </c>
@@ -9482,8 +10568,14 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2792.3829999999998</v>
       </c>
@@ -9514,8 +10606,14 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3241.6089999999999</v>
       </c>
@@ -9546,8 +10644,14 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3776.8719999999998</v>
       </c>
@@ -9578,8 +10682,14 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4052.0079999999998</v>
       </c>
@@ -9610,8 +10720,14 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4413.1819999999998</v>
       </c>
@@ -9642,8 +10758,14 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4862.4080000000004</v>
       </c>
@@ -9674,8 +10796,14 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5311.634</v>
       </c>
@@ -9706,8 +10834,14 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2646.3249999999998</v>
       </c>
@@ -9738,8 +10872,14 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2401.1979999999999</v>
       </c>
@@ -9770,8 +10910,14 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2081.0509999999999</v>
       </c>
@@ -9802,8 +10948,14 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3054.5239999999999</v>
       </c>
@@ -9829,13 +10981,19 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1661.836</v>
       </c>
@@ -9866,8 +11024,14 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1416.7090000000001</v>
       </c>
@@ -9898,8 +11062,14 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1865.9349999999999</v>
       </c>
@@ -9930,8 +11100,14 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2040.0250000000001</v>
       </c>
@@ -9962,8 +11138,14 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2070.0349999999999</v>
       </c>
@@ -9994,8 +11176,14 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2605.2979999999998</v>
       </c>
@@ -10026,8 +11214,14 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2734.377</v>
       </c>
@@ -10058,8 +11252,14 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3095.5509999999999</v>
       </c>
@@ -10090,8 +11290,14 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3660.8240000000001</v>
       </c>
@@ -10122,8 +11328,14 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1590.799</v>
       </c>
@@ -10154,8 +11366,14 @@
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3211.598</v>
       </c>
@@ -10186,8 +11404,14 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4226.098</v>
       </c>
@@ -10218,8 +11442,14 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4675.3239999999996</v>
       </c>
@@ -10250,8 +11480,14 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2693.3510000000001</v>
       </c>
@@ -10282,8 +11518,14 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3054.5239999999999</v>
       </c>
@@ -10314,8 +11556,14 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3415.6979999999999</v>
       </c>
@@ -10346,8 +11594,14 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3415.6979999999999</v>
       </c>
@@ -10378,8 +11632,14 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2040.0250000000001</v>
       </c>
@@ -10408,10 +11668,16 @@
         <v>0</v>
       </c>
       <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2285.1509999999998</v>
       </c>
@@ -10442,8 +11708,14 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4314.1499999999996</v>
       </c>
@@ -10474,8 +11746,14 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4041.029</v>
       </c>
@@ -10504,10 +11782,16 @@
         <v>0</v>
       </c>
       <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4490.2550000000001</v>
       </c>
@@ -10538,8 +11822,14 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4851.4290000000001</v>
       </c>
@@ -10570,8 +11860,14 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3387.703</v>
       </c>
@@ -10600,10 +11896,16 @@
         <v>0</v>
       </c>
       <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2605.2979999999998</v>
       </c>
@@ -10634,8 +11936,14 @@
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2966.4720000000002</v>
       </c>
@@ -10666,8 +11974,14 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3054.5239999999999</v>
       </c>
@@ -10698,8 +12012,14 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3415.6979999999999</v>
       </c>
@@ -10730,8 +12050,14 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3503.75</v>
       </c>
@@ -10762,8 +12088,14 @@
       <c r="J76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3864.924</v>
       </c>
@@ -10794,8 +12126,14 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4226.098</v>
       </c>
@@ -10826,8 +12164,14 @@
       <c r="J78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4675.3239999999996</v>
       </c>
@@ -10858,8 +12202,14 @@
       <c r="J79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5036.4970000000003</v>
       </c>
@@ -10890,8 +12240,14 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5485.723</v>
       </c>
@@ -10922,8 +12278,14 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2244.1239999999998</v>
       </c>
@@ -10949,13 +12311,19 @@
         <v>0</v>
       </c>
       <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2605.2979999999998</v>
       </c>
@@ -10981,13 +12349,19 @@
         <v>0</v>
       </c>
       <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2693.3510000000001</v>
       </c>
@@ -11013,13 +12387,19 @@
         <v>0</v>
       </c>
       <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2605.2979999999998</v>
       </c>
@@ -11050,8 +12430,14 @@
       <c r="J85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3864.924</v>
       </c>
@@ -11080,6 +12466,12 @@
         <v>0</v>
       </c>
       <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
         <v>0</v>
       </c>
     </row>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glsvg\Desktop\With GnT branching data\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glsvg\Desktop\GitHub\N-Glycosylation-Markov-Models\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33646708-C2FC-492F-953B-E116572166E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE16A2-2C64-4362-AA04-4B3846541BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,25 +815,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1153,27 +1149,27 @@
   <dimension ref="A1:L981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="I1:J1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1205,16 +1201,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>1345.672</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2">
@@ -1243,16 +1239,16 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>1375.683</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3">
@@ -1281,16 +1277,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>1416.7090000000001</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4">
@@ -1319,16 +1315,16 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>1549.7719999999999</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5">
@@ -1357,16 +1353,16 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>1579.7829999999999</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>2.00855622255257E-3</v>
       </c>
       <c r="E6">
@@ -1395,16 +1391,16 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>1590.799</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>7.7505305084938098E-3</v>
       </c>
       <c r="E7">
@@ -1433,16 +1429,16 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>1620.809</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>2.04259954835854E-3</v>
       </c>
       <c r="E8">
@@ -1471,16 +1467,16 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>1661.836</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
         <v>2.2468595031944001E-3</v>
       </c>
       <c r="E9">
@@ -1509,16 +1505,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>1753.8720000000001</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10">
@@ -1547,16 +1543,16 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>1783.8820000000001</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11">
@@ -1585,16 +1581,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>1794.8979999999999</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
         <v>4.0284602203738001E-3</v>
       </c>
       <c r="E12">
@@ -1623,16 +1619,16 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>1824.9090000000001</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13">
@@ -1661,16 +1657,16 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>1835.925</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
         <v>7.4849925672072007E-2</v>
       </c>
       <c r="E14">
@@ -1699,16 +1695,16 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>1865.9349999999999</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
         <v>1.37194602998082E-2</v>
       </c>
       <c r="E15">
@@ -1737,16 +1733,16 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>1906.962</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
         <v>2.0993384247018402E-3</v>
       </c>
       <c r="E16">
@@ -1775,16 +1771,16 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>1981.9829999999999</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17">
@@ -1813,16 +1809,16 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>2040.0250000000001</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
         <v>5.4140235806770097E-2</v>
       </c>
       <c r="E18">
@@ -1851,16 +1847,16 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>2070.0349999999999</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
         <v>1.15860785493004E-2</v>
       </c>
       <c r="E19">
@@ -1889,16 +1885,16 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>2081.0509999999999</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
         <v>9.2654585068597306E-2</v>
       </c>
       <c r="E20">
@@ -1927,16 +1923,16 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>2111.0619999999999</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
         <v>1.8156440429853701E-2</v>
       </c>
       <c r="E21">
@@ -1965,16 +1961,16 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>2156.0720000000001</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
         <v>1.10073420105988E-3</v>
       </c>
       <c r="E22">
@@ -2003,16 +1999,16 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>2186.0830000000001</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23">
@@ -2041,16 +2037,16 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>2244.1239999999998</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>1.096160157532E-2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>0.113477752686586</v>
       </c>
       <c r="E24">
@@ -2079,16 +2075,16 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>2274.1350000000002</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
         <v>1.91210013276897E-2</v>
       </c>
       <c r="E25">
@@ -2117,16 +2113,16 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>2285.1509999999998</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>9.2768843671370803E-3</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>5.6693485242218303E-2</v>
       </c>
       <c r="E26">
@@ -2155,16 +2151,16 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>2315.1619999999998</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
         <v>1.19492073578975E-2</v>
       </c>
       <c r="E27">
@@ -2193,16 +2189,16 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>2326.1779999999999</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>1.7372278744119899E-2</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>2.10501231233617E-2</v>
       </c>
       <c r="E28">
@@ -2231,16 +2227,16 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>2356.1880000000001</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
         <v>4.7547178375679502E-3</v>
       </c>
       <c r="E29">
@@ -2269,16 +2265,16 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>2401.1979999999999</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>3.9164205229187199E-3</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>2.91637824404525E-3</v>
       </c>
       <c r="E30">
@@ -2307,16 +2303,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>2431.2089999999998</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31">
@@ -2345,16 +2341,16 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>2489.2510000000002</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>7.6359260474784E-3</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>3.5336972186602797E-2</v>
       </c>
       <c r="E32">
@@ -2383,16 +2379,16 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>2517.2460000000001</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33">
@@ -2421,16 +2417,16 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>2519.261</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
         <v>7.8980515869863707E-3</v>
       </c>
       <c r="E34">
@@ -2459,16 +2455,16 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>2530.277</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>1.07646865769609E-2</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>2.1923901819048401E-2</v>
       </c>
       <c r="E35">
@@ -2497,16 +2493,16 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>2560.288</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
         <v>5.2994110504635599E-3</v>
       </c>
       <c r="E36">
@@ -2535,16 +2531,16 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>2576.2719999999999</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37">
@@ -2573,16 +2569,16 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38">
         <v>2605.2979999999998</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>2.5795864785034501E-2</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>2.8369438171646399E-2</v>
       </c>
       <c r="E38">
@@ -2611,16 +2607,16 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39">
         <v>2635.3090000000002</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
         <v>6.6611440827025904E-3</v>
       </c>
       <c r="E39">
@@ -2649,16 +2645,16 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>2646.3249999999998</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>6.7826277212558799E-3</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>3.2908548279109899E-3</v>
       </c>
       <c r="E40">
@@ -2687,16 +2683,16 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41">
         <v>2676.335</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41">
@@ -2725,16 +2721,16 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42">
         <v>2693.3510000000001</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>1.01958210261459E-2</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <v>6.2185808472248999E-2</v>
       </c>
       <c r="E42">
@@ -2763,16 +2759,16 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>2723.3609999999999</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
         <v>1.29705071320768E-2</v>
       </c>
       <c r="E43">
@@ -2801,16 +2797,16 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>2734.377</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>1.0261459358932299E-2</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>1.7850050497599902E-2</v>
       </c>
       <c r="E44">
@@ -2839,16 +2835,16 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>2762.3719999999998</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="3">
-        <v>0</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
         <v>0</v>
       </c>
       <c r="E45">
@@ -2877,16 +2873,16 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46">
         <v>2764.3879999999999</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
         <v>4.43698013004551E-3</v>
       </c>
       <c r="E46">
@@ -2915,16 +2911,16 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47">
         <v>2775.404</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
         <v>0</v>
       </c>
       <c r="E47">
@@ -2953,16 +2949,16 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48">
         <v>2792.3829999999998</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
         <v>0</v>
       </c>
       <c r="E48">
@@ -2991,16 +2987,16 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49">
         <v>2850.424</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>8.7517777048462999E-3</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <v>6.1277986450756303E-3</v>
       </c>
       <c r="E49">
@@ -3029,16 +3025,16 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50">
         <v>2880.4349999999999</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="3">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
         <v>1.9972084472839099E-3</v>
       </c>
       <c r="E50">
@@ -3067,16 +3063,16 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51">
         <v>2891.451</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>9.0143310359916892E-3</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>1.5092541107315899E-3</v>
       </c>
       <c r="E51">
@@ -3105,16 +3101,16 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52">
         <v>2921.462</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="3">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
         <v>9.7590867310463805E-4</v>
       </c>
       <c r="E52">
@@ -3143,16 +3139,16 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53">
         <v>2938.4769999999999</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <v>1.0327097691718599E-2</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>1.84628303621075E-2</v>
       </c>
       <c r="E53">
@@ -3181,16 +3177,16 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54">
         <v>2966.4720000000002</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <v>3.4285089158735398E-2</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>5.3107588257322201E-3</v>
       </c>
       <c r="E54">
@@ -3219,16 +3215,16 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55">
         <v>2968.4870000000001</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="3">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
         <v>0</v>
       </c>
       <c r="E55">
@@ -3257,16 +3253,16 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56">
         <v>2979.5030000000002</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="3">
-        <v>0</v>
-      </c>
-      <c r="D56" s="4">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
         <v>1.02129977417927E-3</v>
       </c>
       <c r="E56">
@@ -3295,16 +3291,16 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57">
         <v>2996.482</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>7.9641177114101302E-3</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
         <v>0</v>
       </c>
       <c r="E57">
@@ -3333,16 +3329,16 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58">
         <v>3054.5239999999999</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>2.8530795317798899E-2</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="2">
         <v>2.9322651294213801E-2</v>
       </c>
       <c r="E58">
@@ -3371,16 +3367,16 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59">
         <v>3084.5349999999999</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59">
         <v>6.8482660540422303E-3</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="2">
         <v>6.9221429138817299E-3</v>
       </c>
       <c r="E59">
@@ -3409,16 +3405,16 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60">
         <v>3095.5509999999999</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <v>9.6707143638551599E-3</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="2">
         <v>2.6667271881347702E-3</v>
       </c>
       <c r="E60">
@@ -3447,16 +3443,16 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61">
         <v>3125.5610000000001</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="3">
-        <v>0</v>
-      </c>
-      <c r="D61" s="4">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
         <v>0</v>
       </c>
       <c r="E61">
@@ -3485,16 +3481,16 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62">
         <v>3142.5770000000002</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>1.16179849031835E-2</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="2">
         <v>4.6219488669246397E-2</v>
       </c>
       <c r="E62">
@@ -3523,16 +3519,16 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63">
         <v>3172.587</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="3">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
         <v>9.3619145966433292E-3</v>
       </c>
       <c r="E63">
@@ -3561,16 +3557,16 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64">
         <v>3183.6030000000001</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="3">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
         <v>1.7929484924480599E-3</v>
       </c>
       <c r="E64">
@@ -3599,16 +3595,16 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65">
         <v>3211.598</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65">
         <v>9.3425226999234202E-3</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="2">
         <v>0</v>
       </c>
       <c r="E65">
@@ -3637,16 +3633,16 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66">
         <v>3227.5819999999999</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>149</v>
       </c>
-      <c r="C66" s="3">
-        <v>0</v>
-      </c>
-      <c r="D66" s="4">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
         <v>0</v>
       </c>
       <c r="E66">
@@ -3675,16 +3671,16 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67">
         <v>3241.6089999999999</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="3">
-        <v>0</v>
-      </c>
-      <c r="D67" s="4">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
         <v>0</v>
       </c>
       <c r="E67">
@@ -3713,16 +3709,16 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68">
         <v>3299.6509999999998</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68">
         <v>1.33902198884148E-2</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="2">
         <v>4.2327201752096503E-3</v>
       </c>
       <c r="E68">
@@ -3751,16 +3747,16 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69">
         <v>3329.6610000000001</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69">
         <v>3.9820588557050703E-3</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="2">
         <v>1.9177740204033001E-3</v>
       </c>
       <c r="E69">
@@ -3789,16 +3785,16 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70">
         <v>3340.6770000000001</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="3">
-        <v>0</v>
-      </c>
-      <c r="D70" s="4">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
         <v>0</v>
       </c>
       <c r="E70">
@@ -3827,16 +3823,16 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71">
         <v>3386.67</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="3">
-        <v>0</v>
-      </c>
-      <c r="D71" s="4">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
         <v>0</v>
       </c>
       <c r="E71">
@@ -3865,16 +3861,16 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72">
         <v>3387.703</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="3">
-        <v>0</v>
-      </c>
-      <c r="D72" s="4">
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
         <v>0</v>
       </c>
       <c r="E72">
@@ -3903,16 +3899,16 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73">
         <v>3415.6979999999999</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <v>6.0912372825730199E-2</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="2">
         <v>1.2335031717031901E-2</v>
       </c>
       <c r="E73">
@@ -3941,16 +3937,16 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74">
         <v>3417.7130000000002</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74" s="4">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
         <v>0</v>
       </c>
       <c r="E74">
@@ -3979,16 +3975,16 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75">
         <v>3445.7080000000001</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <v>1.6715895416256399E-2</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="2">
         <v>3.9944168945678198E-3</v>
       </c>
       <c r="E75">
@@ -4017,16 +4013,16 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76">
         <v>3456.7240000000002</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76">
         <v>9.9332676950005493E-3</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="2">
         <v>0</v>
       </c>
       <c r="E76">
@@ -4055,16 +4051,16 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77">
         <v>3486.7350000000001</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="3">
-        <v>0</v>
-      </c>
-      <c r="D77" s="4">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
         <v>0</v>
       </c>
       <c r="E77">
@@ -4093,16 +4089,16 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78">
         <v>3503.75</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <v>3.4088174160376301E-2</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="2">
         <v>2.83013515200345E-2</v>
       </c>
       <c r="E78">
@@ -4131,16 +4127,16 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79">
         <v>3533.761</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79">
         <v>7.5046493819057002E-3</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="2">
         <v>7.5576183289266102E-3</v>
       </c>
       <c r="E79">
@@ -4169,16 +4165,16 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80">
         <v>3544.777</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="3">
-        <v>0</v>
-      </c>
-      <c r="D80" s="4">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
         <v>0</v>
       </c>
       <c r="E80">
@@ -4207,16 +4203,16 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81">
         <v>3574.7869999999998</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="3">
-        <v>0</v>
-      </c>
-      <c r="D81" s="4">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
         <v>0</v>
       </c>
       <c r="E81">
@@ -4245,16 +4241,16 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82">
         <v>3591.8029999999999</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="3">
-        <v>0</v>
-      </c>
-      <c r="D82" s="4">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
         <v>9.0668724396582093E-3</v>
       </c>
       <c r="E82">
@@ -4283,16 +4279,16 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83">
         <v>3602.7820000000002</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="3">
-        <v>0</v>
-      </c>
-      <c r="D83" s="4">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
         <v>0</v>
       </c>
       <c r="E83">
@@ -4321,16 +4317,16 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84">
         <v>3621.8130000000001</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="3">
-        <v>0</v>
-      </c>
-      <c r="D84" s="4">
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
         <v>2.49651055910489E-3</v>
       </c>
       <c r="E84">
@@ -4359,16 +4355,16 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85">
         <v>3632.8290000000002</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="3">
-        <v>0</v>
-      </c>
-      <c r="D85" s="4">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
         <v>0</v>
       </c>
       <c r="E85">
@@ -4397,16 +4393,16 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86">
         <v>3660.8240000000001</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>169</v>
       </c>
-      <c r="C86" s="3">
-        <v>0</v>
-      </c>
-      <c r="D86" s="4">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
         <v>1.6908185150301301E-3</v>
       </c>
       <c r="E86">
@@ -4435,16 +4431,16 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87">
         <v>3689.8389999999999</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s">
         <v>170</v>
       </c>
-      <c r="C87" s="3">
-        <v>0</v>
-      </c>
-      <c r="D87" s="4">
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
         <v>0</v>
       </c>
       <c r="E87">
@@ -4473,16 +4469,16 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88">
         <v>3690.835</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>171</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88">
         <v>7.0451810524012701E-3</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="2">
         <v>7.0356206665683199E-4</v>
       </c>
       <c r="E88">
@@ -4511,16 +4507,16 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89">
         <v>3744.893</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>172</v>
       </c>
-      <c r="C89" s="3">
-        <v>0</v>
-      </c>
-      <c r="D89" s="4">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
         <v>0</v>
       </c>
       <c r="E89">
@@ -4549,16 +4545,16 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90">
         <v>3748.877</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="3">
-        <v>0</v>
-      </c>
-      <c r="D90" s="4">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
         <v>0</v>
       </c>
       <c r="E90">
@@ -4587,16 +4583,16 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91">
         <v>3776.8719999999998</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s">
         <v>174</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>6.2028224483098103E-2</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="2">
         <v>3.5064625580154998E-3</v>
       </c>
       <c r="E91">
@@ -4625,16 +4621,16 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92">
         <v>3778.8870000000002</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
         <v>175</v>
       </c>
-      <c r="C92" s="3">
-        <v>0</v>
-      </c>
-      <c r="D92" s="4">
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
         <v>0</v>
       </c>
       <c r="E92">
@@ -4663,16 +4659,16 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93">
         <v>3806.8820000000001</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="3">
-        <v>0</v>
-      </c>
-      <c r="D93" s="4">
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
         <v>1.92912179567196E-3</v>
       </c>
       <c r="E93">
@@ -4701,16 +4697,16 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94">
         <v>3835.8960000000002</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s">
         <v>177</v>
       </c>
-      <c r="C94" s="3">
-        <v>0</v>
-      </c>
-      <c r="D94" s="4">
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
         <v>0</v>
       </c>
       <c r="E94">
@@ -4739,16 +4735,16 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95">
         <v>3836.9290000000001</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
         <v>178</v>
       </c>
-      <c r="C95" s="3">
-        <v>0</v>
-      </c>
-      <c r="D95" s="4">
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
         <v>0</v>
       </c>
       <c r="E95">
@@ -4777,16 +4773,16 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96">
         <v>3847.9090000000001</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" t="s">
         <v>179</v>
       </c>
-      <c r="C96" s="3">
-        <v>0</v>
-      </c>
-      <c r="D96" s="4">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
         <v>0</v>
       </c>
       <c r="E96">
@@ -4815,16 +4811,16 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97">
         <v>3864.924</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
         <v>180</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>0.116223607920359</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="3">
         <v>2.2014684021197599E-2</v>
       </c>
       <c r="E97">
@@ -4853,16 +4849,16 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98">
         <v>3894.9349999999999</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>181</v>
       </c>
-      <c r="C98" s="3">
-        <v>0</v>
-      </c>
-      <c r="D98" s="5">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3">
         <v>6.5363185547473402E-3</v>
       </c>
       <c r="E98">
@@ -4891,16 +4887,16 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="A99">
         <v>3905.95</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" t="s">
         <v>182</v>
       </c>
-      <c r="C99" s="3">
-        <v>0</v>
-      </c>
-      <c r="D99" s="5">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3">
         <v>0</v>
       </c>
       <c r="E99">
@@ -4929,16 +4925,16 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100">
         <v>3935.9609999999998</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" t="s">
         <v>183</v>
       </c>
-      <c r="C100" s="3">
-        <v>0</v>
-      </c>
-      <c r="D100" s="5">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3">
         <v>0</v>
       </c>
       <c r="E100">
@@ -4967,16 +4963,16 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="A101">
         <v>3952.9760000000001</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" t="s">
         <v>184</v>
       </c>
-      <c r="C101" s="3">
-        <v>0</v>
-      </c>
-      <c r="D101" s="5">
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101" s="3">
         <v>6.0710597687323401E-3</v>
       </c>
       <c r="E101">
@@ -5005,16 +5001,16 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="A102">
         <v>3982.9870000000001</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" t="s">
         <v>185</v>
       </c>
-      <c r="C102" s="3">
-        <v>0</v>
-      </c>
-      <c r="D102" s="5">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" s="3">
         <v>2.12203397523915E-3</v>
       </c>
       <c r="E102">
@@ -5043,16 +5039,16 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="A103">
         <v>3992.97</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" t="s">
         <v>186</v>
       </c>
-      <c r="C103" s="3">
-        <v>0</v>
-      </c>
-      <c r="D103" s="5">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" s="3">
         <v>0</v>
       </c>
       <c r="E103">
@@ -5081,16 +5077,16 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="A104">
         <v>4021.998</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" t="s">
         <v>187</v>
       </c>
-      <c r="C104" s="3">
-        <v>0</v>
-      </c>
-      <c r="D104" s="5">
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" s="3">
         <v>0</v>
       </c>
       <c r="E104">
@@ -5119,16 +5115,16 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+      <c r="A105">
         <v>4041.029</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" t="s">
         <v>188</v>
       </c>
-      <c r="C105" s="3">
-        <v>0</v>
-      </c>
-      <c r="D105" s="5">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" s="3">
         <v>2.1901206268511099E-3</v>
       </c>
       <c r="E105">
@@ -5157,16 +5153,16 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="A106">
         <v>4052.0079999999998</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" t="s">
         <v>189</v>
       </c>
-      <c r="C106" s="3">
-        <v>0</v>
-      </c>
-      <c r="D106" s="5">
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" s="3">
         <v>0</v>
       </c>
       <c r="E106">
@@ -5195,16 +5191,16 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="A107">
         <v>4071.0390000000002</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" t="s">
         <v>190</v>
       </c>
-      <c r="C107" s="3">
-        <v>0</v>
-      </c>
-      <c r="D107" s="5">
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" s="3">
         <v>5.6738876343292901E-4</v>
       </c>
       <c r="E107">
@@ -5233,16 +5229,16 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="A108">
         <v>4082.0549999999998</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" t="s">
         <v>191</v>
       </c>
-      <c r="C108" s="3">
-        <v>0</v>
-      </c>
-      <c r="D108" s="5">
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" s="3">
         <v>0</v>
       </c>
       <c r="E108">
@@ -5271,16 +5267,16 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="A109">
         <v>4110.05</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" t="s">
         <v>192</v>
       </c>
-      <c r="C109" s="3">
-        <v>0</v>
-      </c>
-      <c r="D109" s="5">
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3">
         <v>0</v>
       </c>
       <c r="E109">
@@ -5309,16 +5305,16 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="A110">
         <v>4140.0609999999997</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" t="s">
         <v>193</v>
       </c>
-      <c r="C110" s="3">
-        <v>0</v>
-      </c>
-      <c r="D110" s="5">
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
         <v>0</v>
       </c>
       <c r="E110">
@@ -5347,16 +5343,16 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="A111">
         <v>4194.1189999999997</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" t="s">
         <v>194</v>
       </c>
-      <c r="C111" s="3">
-        <v>0</v>
-      </c>
-      <c r="D111" s="5">
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
         <v>0</v>
       </c>
       <c r="E111">
@@ -5385,16 +5381,16 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="A112">
         <v>4226.098</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" t="s">
         <v>195</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112">
         <v>0.21879444262115699</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="3">
         <v>9.3619145966433292E-3</v>
       </c>
       <c r="E112">
@@ -5423,16 +5419,16 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="A113">
         <v>4256.1080000000002</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" t="s">
         <v>196</v>
       </c>
-      <c r="C113" s="3">
-        <v>0</v>
-      </c>
-      <c r="D113" s="5">
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113" s="3">
         <v>2.8482915924333001E-3</v>
       </c>
       <c r="E113">
@@ -5461,16 +5457,16 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="A114">
         <v>4285.1220000000003</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" t="s">
         <v>197</v>
       </c>
-      <c r="C114" s="3">
-        <v>0</v>
-      </c>
-      <c r="D114" s="5">
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114" s="3">
         <v>1.38442858277635E-3</v>
       </c>
       <c r="E114">
@@ -5499,16 +5495,16 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+      <c r="A115">
         <v>4286.1549999999997</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="3">
-        <v>0</v>
-      </c>
-      <c r="D115" s="5">
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3">
         <v>0</v>
       </c>
       <c r="E115">
@@ -5537,16 +5533,16 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+      <c r="A116">
         <v>4314.1499999999996</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" t="s">
         <v>199</v>
       </c>
-      <c r="C116" s="3">
-        <v>0</v>
-      </c>
-      <c r="D116" s="5">
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3">
         <v>4.4937190063888003E-3</v>
       </c>
       <c r="E116">
@@ -5575,16 +5571,16 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+      <c r="A117">
         <v>4344.1610000000001</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" t="s">
         <v>200</v>
       </c>
-      <c r="C117" s="3">
-        <v>0</v>
-      </c>
-      <c r="D117" s="5">
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3">
         <v>1.5886885376122E-3</v>
       </c>
       <c r="E117">
@@ -5613,16 +5609,16 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="A118">
         <v>4355.1769999999997</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" t="s">
         <v>201</v>
       </c>
-      <c r="C118" s="3">
-        <v>0</v>
-      </c>
-      <c r="D118" s="5">
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3">
         <v>0</v>
       </c>
       <c r="E118">
@@ -5651,16 +5647,16 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+      <c r="A119">
         <v>4357.192</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" t="s">
         <v>202</v>
       </c>
-      <c r="C119" s="3">
-        <v>0</v>
-      </c>
-      <c r="D119" s="5">
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3">
         <v>0</v>
       </c>
       <c r="E119">
@@ -5689,16 +5685,16 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+      <c r="A120">
         <v>4402.2020000000002</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" t="s">
         <v>203</v>
       </c>
-      <c r="C120" s="3">
-        <v>0</v>
-      </c>
-      <c r="D120" s="5">
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" s="3">
         <v>1.1688208526718299E-3</v>
       </c>
       <c r="E120">
@@ -5727,16 +5723,16 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+      <c r="A121">
         <v>4413.1819999999998</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" t="s">
         <v>204</v>
       </c>
-      <c r="C121" s="3">
-        <v>0</v>
-      </c>
-      <c r="D121" s="5">
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3">
         <v>0</v>
       </c>
       <c r="E121">
@@ -5765,16 +5761,16 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="A122">
         <v>4432.2129999999997</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" t="s">
         <v>205</v>
       </c>
-      <c r="C122" s="3">
-        <v>0</v>
-      </c>
-      <c r="D122" s="5">
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122" s="3">
         <v>0</v>
       </c>
       <c r="E122">
@@ -5803,16 +5799,16 @@
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+      <c r="A123">
         <v>4443.2290000000003</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" t="s">
         <v>206</v>
       </c>
-      <c r="C123" s="3">
-        <v>0</v>
-      </c>
-      <c r="D123" s="5">
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123" s="3">
         <v>0</v>
       </c>
       <c r="E123">
@@ -5841,16 +5837,16 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+      <c r="A124">
         <v>4471.2240000000002</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" t="s">
         <v>207</v>
       </c>
-      <c r="C124" s="3">
-        <v>0</v>
-      </c>
-      <c r="D124" s="5">
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3">
         <v>0</v>
       </c>
       <c r="E124">
@@ -5879,16 +5875,16 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+      <c r="A125">
         <v>4490.2550000000001</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" t="s">
         <v>208</v>
       </c>
-      <c r="C125" s="3">
-        <v>0</v>
-      </c>
-      <c r="D125" s="5">
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3">
         <v>0</v>
       </c>
       <c r="E125">
@@ -5917,16 +5913,16 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="A126">
         <v>4501.2340000000004</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" t="s">
         <v>209</v>
       </c>
-      <c r="C126" s="3">
-        <v>0</v>
-      </c>
-      <c r="D126" s="5">
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" s="3">
         <v>0</v>
       </c>
       <c r="E126">
@@ -5955,16 +5951,16 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+      <c r="A127">
         <v>4520.2650000000003</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" t="s">
         <v>210</v>
       </c>
-      <c r="C127" s="3">
-        <v>0</v>
-      </c>
-      <c r="D127" s="5">
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127" s="3">
         <v>0</v>
       </c>
       <c r="E127">
@@ -5993,16 +5989,16 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+      <c r="A128">
         <v>4531.2809999999999</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" t="s">
         <v>211</v>
       </c>
-      <c r="C128" s="3">
-        <v>0</v>
-      </c>
-      <c r="D128" s="5">
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128" s="3">
         <v>0</v>
       </c>
       <c r="E128">
@@ -6031,16 +6027,16 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+      <c r="A129">
         <v>4555.2929999999997</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" t="s">
         <v>212</v>
       </c>
-      <c r="C129" s="3">
-        <v>0</v>
-      </c>
-      <c r="D129" s="5">
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129" s="3">
         <v>0</v>
       </c>
       <c r="E129">
@@ -6069,16 +6065,16 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="A130">
         <v>4559.2759999999998</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" t="s">
         <v>213</v>
       </c>
-      <c r="C130" s="3">
-        <v>0</v>
-      </c>
-      <c r="D130" s="5">
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130" s="3">
         <v>0</v>
       </c>
       <c r="E130">
@@ -6107,16 +6103,16 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+      <c r="A131">
         <v>4572.308</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" t="s">
         <v>214</v>
       </c>
-      <c r="C131" s="3">
-        <v>0</v>
-      </c>
-      <c r="D131" s="5">
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131" s="3">
         <v>0</v>
       </c>
       <c r="E131">
@@ -6145,16 +6141,16 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="A132">
         <v>4587.2709999999997</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" t="s">
         <v>215</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132">
         <v>0.162126681982278</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="3">
         <v>1.83833959352269E-3</v>
       </c>
       <c r="E132">
@@ -6183,16 +6179,16 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+      <c r="A133">
         <v>4617.2820000000002</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" t="s">
         <v>216</v>
       </c>
-      <c r="C133" s="3">
-        <v>0</v>
-      </c>
-      <c r="D133" s="5">
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133" s="3">
         <v>1.3163419311644001E-3</v>
       </c>
       <c r="E133">
@@ -6221,16 +6217,16 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="A134">
         <v>4647.3289999999997</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" t="s">
         <v>217</v>
       </c>
-      <c r="C134" s="3">
-        <v>0</v>
-      </c>
-      <c r="D134" s="5">
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" s="3">
         <v>0</v>
       </c>
       <c r="E134">
@@ -6259,16 +6255,16 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+      <c r="A135">
         <v>4675.3239999999996</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" t="s">
         <v>218</v>
       </c>
-      <c r="C135" s="3">
-        <v>0</v>
-      </c>
-      <c r="D135" s="5">
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135" s="3">
         <v>2.0199039978212301E-3</v>
       </c>
       <c r="E135">
@@ -6297,16 +6293,16 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="A136">
         <v>4705.3339999999998</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" t="s">
         <v>219</v>
       </c>
-      <c r="C136" s="3">
-        <v>0</v>
-      </c>
-      <c r="D136" s="5">
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3">
         <v>9.872564483732959E-4</v>
       </c>
       <c r="E136">
@@ -6335,16 +6331,16 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+      <c r="A137">
         <v>4763.3760000000002</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" t="s">
         <v>220</v>
       </c>
-      <c r="C137" s="3">
-        <v>0</v>
-      </c>
-      <c r="D137" s="5">
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" s="3">
         <v>8.3973536988073496E-4</v>
       </c>
       <c r="E137">
@@ -6373,16 +6369,16 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="A138">
         <v>4851.4290000000001</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" t="s">
         <v>221</v>
       </c>
-      <c r="C138" s="3">
-        <v>0</v>
-      </c>
-      <c r="D138" s="5">
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3">
         <v>0</v>
       </c>
       <c r="E138">
@@ -6411,16 +6407,16 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="A139">
         <v>4862.4080000000004</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" t="s">
         <v>222</v>
       </c>
-      <c r="C139" s="3">
-        <v>0</v>
-      </c>
-      <c r="D139" s="5">
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3">
         <v>0</v>
       </c>
       <c r="E139">
@@ -6449,16 +6445,16 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="A140">
         <v>4939.4809999999998</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" t="s">
         <v>223</v>
       </c>
-      <c r="C140" s="3">
-        <v>0</v>
-      </c>
-      <c r="D140" s="5">
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3">
         <v>0</v>
       </c>
       <c r="E140">
@@ -6487,16 +6483,16 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+      <c r="A141">
         <v>5036.4970000000003</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" t="s">
         <v>224</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141">
         <v>3.30379608357948E-2</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="3">
         <v>6.5817096558219799E-4</v>
       </c>
       <c r="E141">
@@ -6525,16 +6521,16 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="A142">
         <v>5066.5079999999998</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" t="s">
         <v>225</v>
       </c>
-      <c r="C142" s="3">
-        <v>0</v>
-      </c>
-      <c r="D142" s="5">
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142" s="3">
         <v>0</v>
       </c>
       <c r="E142">
@@ -6563,16 +6559,16 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+      <c r="A143">
         <v>5124.55</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" t="s">
         <v>226</v>
       </c>
-      <c r="C143" s="3">
-        <v>0</v>
-      </c>
-      <c r="D143" s="5">
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" s="3">
         <v>0</v>
       </c>
       <c r="E143">
@@ -6601,16 +6597,16 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="A144">
         <v>5311.634</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" t="s">
         <v>227</v>
       </c>
-      <c r="C144" s="3">
-        <v>0</v>
-      </c>
-      <c r="D144" s="5">
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3">
         <v>0</v>
       </c>
       <c r="E144">
@@ -6639,16 +6635,16 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+      <c r="A145">
         <v>5485.723</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" t="s">
         <v>228</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145">
         <v>4.9009955147139303E-3</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="3">
         <v>0</v>
       </c>
       <c r="E145">
@@ -6677,2512 +6673,2512 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D146" s="5"/>
+      <c r="D146" s="3"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D147" s="5"/>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D148" s="5"/>
+      <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D149" s="5"/>
+      <c r="D149" s="3"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D150" s="5"/>
+      <c r="D150" s="3"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D151" s="5"/>
+      <c r="D151" s="3"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D152" s="5"/>
+      <c r="D152" s="3"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D153" s="5"/>
+      <c r="D153" s="3"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D154" s="5"/>
+      <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D155" s="5"/>
+      <c r="D155" s="3"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D156" s="5"/>
+      <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D157" s="5"/>
+      <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D158" s="5"/>
+      <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D159" s="5"/>
+      <c r="D159" s="3"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D160" s="5"/>
+      <c r="D160" s="3"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="5"/>
+      <c r="D161" s="3"/>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="5"/>
+      <c r="D162" s="3"/>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163" s="5"/>
+      <c r="D163" s="3"/>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D164" s="5"/>
+      <c r="D164" s="3"/>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D165" s="5"/>
+      <c r="D165" s="3"/>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D166" s="5"/>
+      <c r="D166" s="3"/>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D167" s="5"/>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D168" s="5"/>
+      <c r="D168" s="3"/>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D169" s="5"/>
+      <c r="D169" s="3"/>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D170" s="5"/>
+      <c r="D170" s="3"/>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D171" s="5"/>
+      <c r="D171" s="3"/>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D172" s="5"/>
+      <c r="D172" s="3"/>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D173" s="5"/>
+      <c r="D173" s="3"/>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D174" s="5"/>
+      <c r="D174" s="3"/>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D175" s="5"/>
+      <c r="D175" s="3"/>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D176" s="5"/>
+      <c r="D176" s="3"/>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D177" s="5"/>
+      <c r="D177" s="3"/>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D178" s="5"/>
+      <c r="D178" s="3"/>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D179" s="5"/>
+      <c r="D179" s="3"/>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D180" s="5"/>
+      <c r="D180" s="3"/>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D181" s="5"/>
+      <c r="D181" s="3"/>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D182" s="5"/>
+      <c r="D182" s="3"/>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="5"/>
+      <c r="D183" s="3"/>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D184" s="5"/>
+      <c r="D184" s="3"/>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D185" s="5"/>
+      <c r="D185" s="3"/>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D186" s="5"/>
+      <c r="D186" s="3"/>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D187" s="5"/>
+      <c r="D187" s="3"/>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D188" s="5"/>
+      <c r="D188" s="3"/>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D189" s="5"/>
+      <c r="D189" s="3"/>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D190" s="5"/>
+      <c r="D190" s="3"/>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D191" s="5"/>
+      <c r="D191" s="3"/>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D192" s="5"/>
+      <c r="D192" s="3"/>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D193" s="5"/>
+      <c r="D193" s="3"/>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D194" s="5"/>
+      <c r="D194" s="3"/>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D195" s="5"/>
+      <c r="D195" s="3"/>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D196" s="5"/>
+      <c r="D196" s="3"/>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D197" s="5"/>
+      <c r="D197" s="3"/>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D198" s="5"/>
+      <c r="D198" s="3"/>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D199" s="5"/>
+      <c r="D199" s="3"/>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D200" s="5"/>
+      <c r="D200" s="3"/>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D201" s="5"/>
+      <c r="D201" s="3"/>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D202" s="5"/>
+      <c r="D202" s="3"/>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D203" s="5"/>
+      <c r="D203" s="3"/>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D204" s="5"/>
+      <c r="D204" s="3"/>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D205" s="5"/>
+      <c r="D205" s="3"/>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D206" s="5"/>
+      <c r="D206" s="3"/>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D207" s="5"/>
+      <c r="D207" s="3"/>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D208" s="5"/>
+      <c r="D208" s="3"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D209" s="5"/>
+      <c r="D209" s="3"/>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D210" s="5"/>
+      <c r="D210" s="3"/>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D211" s="5"/>
+      <c r="D211" s="3"/>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D212" s="5"/>
+      <c r="D212" s="3"/>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D213" s="5"/>
+      <c r="D213" s="3"/>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D214" s="5"/>
+      <c r="D214" s="3"/>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D215" s="5"/>
+      <c r="D215" s="3"/>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D216" s="5"/>
+      <c r="D216" s="3"/>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D217" s="5"/>
+      <c r="D217" s="3"/>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D218" s="5"/>
+      <c r="D218" s="3"/>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D219" s="5"/>
+      <c r="D219" s="3"/>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D220" s="5"/>
+      <c r="D220" s="3"/>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D221" s="5"/>
+      <c r="D221" s="3"/>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D222" s="5"/>
+      <c r="D222" s="3"/>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D223" s="5"/>
+      <c r="D223" s="3"/>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D224" s="5"/>
+      <c r="D224" s="3"/>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D225" s="5"/>
+      <c r="D225" s="3"/>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D226" s="5"/>
+      <c r="D226" s="3"/>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D227" s="5"/>
+      <c r="D227" s="3"/>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D228" s="5"/>
+      <c r="D228" s="3"/>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D229" s="5"/>
+      <c r="D229" s="3"/>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D230" s="5"/>
+      <c r="D230" s="3"/>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D231" s="5"/>
+      <c r="D231" s="3"/>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D232" s="5"/>
+      <c r="D232" s="3"/>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D233" s="5"/>
+      <c r="D233" s="3"/>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D234" s="5"/>
+      <c r="D234" s="3"/>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D235" s="5"/>
+      <c r="D235" s="3"/>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D236" s="5"/>
+      <c r="D236" s="3"/>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D237" s="5"/>
+      <c r="D237" s="3"/>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D238" s="5"/>
+      <c r="D238" s="3"/>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D239" s="5"/>
+      <c r="D239" s="3"/>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D240" s="5"/>
+      <c r="D240" s="3"/>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D241" s="5"/>
+      <c r="D241" s="3"/>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D242" s="5"/>
+      <c r="D242" s="3"/>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D243" s="5"/>
+      <c r="D243" s="3"/>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D244" s="5"/>
+      <c r="D244" s="3"/>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D245" s="5"/>
+      <c r="D245" s="3"/>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D246" s="5"/>
+      <c r="D246" s="3"/>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D247" s="5"/>
+      <c r="D247" s="3"/>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D248" s="5"/>
+      <c r="D248" s="3"/>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D249" s="5"/>
+      <c r="D249" s="3"/>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D250" s="5"/>
+      <c r="D250" s="3"/>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D251" s="5"/>
+      <c r="D251" s="3"/>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D252" s="5"/>
+      <c r="D252" s="3"/>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D253" s="5"/>
+      <c r="D253" s="3"/>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D254" s="5"/>
+      <c r="D254" s="3"/>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D255" s="5"/>
+      <c r="D255" s="3"/>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D256" s="5"/>
+      <c r="D256" s="3"/>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D257" s="5"/>
+      <c r="D257" s="3"/>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D258" s="5"/>
+      <c r="D258" s="3"/>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D259" s="5"/>
+      <c r="D259" s="3"/>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D260" s="5"/>
+      <c r="D260" s="3"/>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D261" s="5"/>
+      <c r="D261" s="3"/>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D262" s="5"/>
+      <c r="D262" s="3"/>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D263" s="5"/>
+      <c r="D263" s="3"/>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D264" s="5"/>
+      <c r="D264" s="3"/>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D265" s="5"/>
+      <c r="D265" s="3"/>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D266" s="5"/>
+      <c r="D266" s="3"/>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D267" s="5"/>
+      <c r="D267" s="3"/>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D268" s="5"/>
+      <c r="D268" s="3"/>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D269" s="6"/>
+      <c r="D269" s="4"/>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D270" s="6"/>
+      <c r="D270" s="4"/>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D271" s="6"/>
+      <c r="D271" s="4"/>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D272" s="6"/>
+      <c r="D272" s="4"/>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D273" s="6"/>
+      <c r="D273" s="4"/>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D274" s="6"/>
+      <c r="D274" s="4"/>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D275" s="6"/>
+      <c r="D275" s="4"/>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D276" s="6"/>
+      <c r="D276" s="4"/>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D277" s="6"/>
+      <c r="D277" s="4"/>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D278" s="6"/>
+      <c r="D278" s="4"/>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D279" s="6"/>
+      <c r="D279" s="4"/>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D280" s="6"/>
+      <c r="D280" s="4"/>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D281" s="6"/>
+      <c r="D281" s="4"/>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D282" s="6"/>
+      <c r="D282" s="4"/>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D283" s="6"/>
+      <c r="D283" s="4"/>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D284" s="6"/>
+      <c r="D284" s="4"/>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D285" s="6"/>
+      <c r="D285" s="4"/>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D286" s="6"/>
+      <c r="D286" s="4"/>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D287" s="6"/>
+      <c r="D287" s="4"/>
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D288" s="6"/>
+      <c r="D288" s="4"/>
     </row>
     <row r="289" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D289" s="6"/>
+      <c r="D289" s="4"/>
     </row>
     <row r="290" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D290" s="6"/>
+      <c r="D290" s="4"/>
     </row>
     <row r="291" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D291" s="6"/>
+      <c r="D291" s="4"/>
     </row>
     <row r="292" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D292" s="6"/>
+      <c r="D292" s="4"/>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D293" s="6"/>
+      <c r="D293" s="4"/>
     </row>
     <row r="294" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D294" s="6"/>
+      <c r="D294" s="4"/>
     </row>
     <row r="295" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D295" s="6"/>
+      <c r="D295" s="4"/>
     </row>
     <row r="296" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D296" s="6"/>
+      <c r="D296" s="4"/>
     </row>
     <row r="297" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D297" s="6"/>
+      <c r="D297" s="4"/>
     </row>
     <row r="298" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D298" s="6"/>
+      <c r="D298" s="4"/>
     </row>
     <row r="299" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D299" s="6"/>
+      <c r="D299" s="4"/>
     </row>
     <row r="300" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D300" s="6"/>
+      <c r="D300" s="4"/>
     </row>
     <row r="301" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D301" s="6"/>
+      <c r="D301" s="4"/>
     </row>
     <row r="302" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D302" s="6"/>
+      <c r="D302" s="4"/>
     </row>
     <row r="303" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D303" s="6"/>
+      <c r="D303" s="4"/>
     </row>
     <row r="304" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D304" s="6"/>
+      <c r="D304" s="4"/>
     </row>
     <row r="305" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D305" s="6"/>
+      <c r="D305" s="4"/>
     </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D306" s="6"/>
+      <c r="D306" s="4"/>
     </row>
     <row r="307" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D307" s="6"/>
+      <c r="D307" s="4"/>
     </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D308" s="6"/>
+      <c r="D308" s="4"/>
     </row>
     <row r="309" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D309" s="6"/>
+      <c r="D309" s="4"/>
     </row>
     <row r="310" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D310" s="6"/>
+      <c r="D310" s="4"/>
     </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D311" s="6"/>
+      <c r="D311" s="4"/>
     </row>
     <row r="312" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D312" s="6"/>
+      <c r="D312" s="4"/>
     </row>
     <row r="313" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D313" s="6"/>
+      <c r="D313" s="4"/>
     </row>
     <row r="314" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D314" s="6"/>
+      <c r="D314" s="4"/>
     </row>
     <row r="315" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D315" s="6"/>
+      <c r="D315" s="4"/>
     </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D316" s="6"/>
+      <c r="D316" s="4"/>
     </row>
     <row r="317" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D317" s="6"/>
+      <c r="D317" s="4"/>
     </row>
     <row r="318" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D318" s="6"/>
+      <c r="D318" s="4"/>
     </row>
     <row r="319" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D319" s="6"/>
+      <c r="D319" s="4"/>
     </row>
     <row r="320" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D320" s="6"/>
+      <c r="D320" s="4"/>
     </row>
     <row r="321" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D321" s="6"/>
+      <c r="D321" s="4"/>
     </row>
     <row r="322" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D322" s="6"/>
+      <c r="D322" s="4"/>
     </row>
     <row r="323" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D323" s="6"/>
+      <c r="D323" s="4"/>
     </row>
     <row r="324" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D324" s="6"/>
+      <c r="D324" s="4"/>
     </row>
     <row r="325" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D325" s="6"/>
+      <c r="D325" s="4"/>
     </row>
     <row r="326" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D326" s="6"/>
+      <c r="D326" s="4"/>
     </row>
     <row r="327" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D327" s="6"/>
+      <c r="D327" s="4"/>
     </row>
     <row r="328" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D328" s="6"/>
+      <c r="D328" s="4"/>
     </row>
     <row r="329" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D329" s="6"/>
+      <c r="D329" s="4"/>
     </row>
     <row r="330" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D330" s="6"/>
+      <c r="D330" s="4"/>
     </row>
     <row r="331" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D331" s="6"/>
+      <c r="D331" s="4"/>
     </row>
     <row r="332" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D332" s="6"/>
+      <c r="D332" s="4"/>
     </row>
     <row r="333" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D333" s="6"/>
+      <c r="D333" s="4"/>
     </row>
     <row r="334" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D334" s="6"/>
+      <c r="D334" s="4"/>
     </row>
     <row r="335" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D335" s="6"/>
+      <c r="D335" s="4"/>
     </row>
     <row r="336" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D336" s="6"/>
+      <c r="D336" s="4"/>
     </row>
     <row r="337" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D337" s="6"/>
+      <c r="D337" s="4"/>
     </row>
     <row r="338" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D338" s="6"/>
+      <c r="D338" s="4"/>
     </row>
     <row r="339" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D339" s="6"/>
+      <c r="D339" s="4"/>
     </row>
     <row r="340" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D340" s="6"/>
+      <c r="D340" s="4"/>
     </row>
     <row r="341" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D341" s="6"/>
+      <c r="D341" s="4"/>
     </row>
     <row r="342" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D342" s="6"/>
+      <c r="D342" s="4"/>
     </row>
     <row r="343" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D343" s="6"/>
+      <c r="D343" s="4"/>
     </row>
     <row r="344" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D344" s="6"/>
+      <c r="D344" s="4"/>
     </row>
     <row r="345" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D345" s="6"/>
+      <c r="D345" s="4"/>
     </row>
     <row r="346" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D346" s="6"/>
+      <c r="D346" s="4"/>
     </row>
     <row r="347" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D347" s="6"/>
+      <c r="D347" s="4"/>
     </row>
     <row r="348" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D348" s="6"/>
+      <c r="D348" s="4"/>
     </row>
     <row r="349" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D349" s="6"/>
+      <c r="D349" s="4"/>
     </row>
     <row r="350" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D350" s="6"/>
+      <c r="D350" s="4"/>
     </row>
     <row r="351" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D351" s="6"/>
+      <c r="D351" s="4"/>
     </row>
     <row r="352" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D352" s="6"/>
+      <c r="D352" s="4"/>
     </row>
     <row r="353" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D353" s="6"/>
+      <c r="D353" s="4"/>
     </row>
     <row r="354" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D354" s="6"/>
+      <c r="D354" s="4"/>
     </row>
     <row r="355" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D355" s="6"/>
+      <c r="D355" s="4"/>
     </row>
     <row r="356" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D356" s="6"/>
+      <c r="D356" s="4"/>
     </row>
     <row r="357" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D357" s="6"/>
+      <c r="D357" s="4"/>
     </row>
     <row r="358" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D358" s="6"/>
+      <c r="D358" s="4"/>
     </row>
     <row r="359" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D359" s="6"/>
+      <c r="D359" s="4"/>
     </row>
     <row r="360" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D360" s="6"/>
+      <c r="D360" s="4"/>
     </row>
     <row r="361" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D361" s="6"/>
+      <c r="D361" s="4"/>
     </row>
     <row r="362" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D362" s="6"/>
+      <c r="D362" s="4"/>
     </row>
     <row r="363" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D363" s="6"/>
+      <c r="D363" s="4"/>
     </row>
     <row r="364" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D364" s="6"/>
+      <c r="D364" s="4"/>
     </row>
     <row r="365" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D365" s="6"/>
+      <c r="D365" s="4"/>
     </row>
     <row r="366" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D366" s="6"/>
+      <c r="D366" s="4"/>
     </row>
     <row r="367" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D367" s="6"/>
+      <c r="D367" s="4"/>
     </row>
     <row r="368" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D368" s="6"/>
+      <c r="D368" s="4"/>
     </row>
     <row r="369" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D369" s="6"/>
+      <c r="D369" s="4"/>
     </row>
     <row r="370" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D370" s="6"/>
+      <c r="D370" s="4"/>
     </row>
     <row r="371" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D371" s="6"/>
+      <c r="D371" s="4"/>
     </row>
     <row r="372" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D372" s="6"/>
+      <c r="D372" s="4"/>
     </row>
     <row r="373" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D373" s="6"/>
+      <c r="D373" s="4"/>
     </row>
     <row r="374" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D374" s="6"/>
+      <c r="D374" s="4"/>
     </row>
     <row r="375" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D375" s="6"/>
+      <c r="D375" s="4"/>
     </row>
     <row r="376" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D376" s="6"/>
+      <c r="D376" s="4"/>
     </row>
     <row r="377" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D377" s="6"/>
+      <c r="D377" s="4"/>
     </row>
     <row r="378" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D378" s="6"/>
+      <c r="D378" s="4"/>
     </row>
     <row r="379" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D379" s="6"/>
+      <c r="D379" s="4"/>
     </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D380" s="6"/>
+      <c r="D380" s="4"/>
     </row>
     <row r="381" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D381" s="6"/>
+      <c r="D381" s="4"/>
     </row>
     <row r="382" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D382" s="6"/>
+      <c r="D382" s="4"/>
     </row>
     <row r="383" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D383" s="6"/>
+      <c r="D383" s="4"/>
     </row>
     <row r="384" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D384" s="6"/>
+      <c r="D384" s="4"/>
     </row>
     <row r="385" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D385" s="6"/>
+      <c r="D385" s="4"/>
     </row>
     <row r="386" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D386" s="6"/>
+      <c r="D386" s="4"/>
     </row>
     <row r="387" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D387" s="6"/>
+      <c r="D387" s="4"/>
     </row>
     <row r="388" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D388" s="6"/>
+      <c r="D388" s="4"/>
     </row>
     <row r="389" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D389" s="6"/>
+      <c r="D389" s="4"/>
     </row>
     <row r="390" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D390" s="6"/>
+      <c r="D390" s="4"/>
     </row>
     <row r="391" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D391" s="6"/>
+      <c r="D391" s="4"/>
     </row>
     <row r="392" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D392" s="6"/>
+      <c r="D392" s="4"/>
     </row>
     <row r="393" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D393" s="6"/>
+      <c r="D393" s="4"/>
     </row>
     <row r="394" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D394" s="6"/>
+      <c r="D394" s="4"/>
     </row>
     <row r="395" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D395" s="6"/>
+      <c r="D395" s="4"/>
     </row>
     <row r="396" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D396" s="6"/>
+      <c r="D396" s="4"/>
     </row>
     <row r="397" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D397" s="6"/>
+      <c r="D397" s="4"/>
     </row>
     <row r="398" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D398" s="6"/>
+      <c r="D398" s="4"/>
     </row>
     <row r="399" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D399" s="6"/>
+      <c r="D399" s="4"/>
     </row>
     <row r="400" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D400" s="6"/>
+      <c r="D400" s="4"/>
     </row>
     <row r="401" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D401" s="6"/>
+      <c r="D401" s="4"/>
     </row>
     <row r="402" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D402" s="6"/>
+      <c r="D402" s="4"/>
     </row>
     <row r="403" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D403" s="6"/>
+      <c r="D403" s="4"/>
     </row>
     <row r="404" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D404" s="6"/>
+      <c r="D404" s="4"/>
     </row>
     <row r="405" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D405" s="6"/>
+      <c r="D405" s="4"/>
     </row>
     <row r="406" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D406" s="6"/>
+      <c r="D406" s="4"/>
     </row>
     <row r="407" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D407" s="6"/>
+      <c r="D407" s="4"/>
     </row>
     <row r="408" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D408" s="6"/>
+      <c r="D408" s="4"/>
     </row>
     <row r="409" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D409" s="6"/>
+      <c r="D409" s="4"/>
     </row>
     <row r="410" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D410" s="6"/>
+      <c r="D410" s="4"/>
     </row>
     <row r="411" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D411" s="6"/>
+      <c r="D411" s="4"/>
     </row>
     <row r="412" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D412" s="6"/>
+      <c r="D412" s="4"/>
     </row>
     <row r="413" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D413" s="6"/>
+      <c r="D413" s="4"/>
     </row>
     <row r="414" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D414" s="6"/>
+      <c r="D414" s="4"/>
     </row>
     <row r="415" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D415" s="6"/>
+      <c r="D415" s="4"/>
     </row>
     <row r="416" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D416" s="6"/>
+      <c r="D416" s="4"/>
     </row>
     <row r="417" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D417" s="6"/>
+      <c r="D417" s="4"/>
     </row>
     <row r="418" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D418" s="6"/>
+      <c r="D418" s="4"/>
     </row>
     <row r="419" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D419" s="6"/>
+      <c r="D419" s="4"/>
     </row>
     <row r="420" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D420" s="6"/>
+      <c r="D420" s="4"/>
     </row>
     <row r="421" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D421" s="6"/>
+      <c r="D421" s="4"/>
     </row>
     <row r="422" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D422" s="6"/>
+      <c r="D422" s="4"/>
     </row>
     <row r="423" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D423" s="6"/>
+      <c r="D423" s="4"/>
     </row>
     <row r="424" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D424" s="6"/>
+      <c r="D424" s="4"/>
     </row>
     <row r="425" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D425" s="6"/>
+      <c r="D425" s="4"/>
     </row>
     <row r="426" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D426" s="6"/>
+      <c r="D426" s="4"/>
     </row>
     <row r="427" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D427" s="6"/>
+      <c r="D427" s="4"/>
     </row>
     <row r="428" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D428" s="6"/>
+      <c r="D428" s="4"/>
     </row>
     <row r="429" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D429" s="6"/>
+      <c r="D429" s="4"/>
     </row>
     <row r="430" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D430" s="6"/>
+      <c r="D430" s="4"/>
     </row>
     <row r="431" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D431" s="6"/>
+      <c r="D431" s="4"/>
     </row>
     <row r="432" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D432" s="6"/>
+      <c r="D432" s="4"/>
     </row>
     <row r="433" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D433" s="6"/>
+      <c r="D433" s="4"/>
     </row>
     <row r="434" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D434" s="6"/>
+      <c r="D434" s="4"/>
     </row>
     <row r="435" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D435" s="6"/>
+      <c r="D435" s="4"/>
     </row>
     <row r="436" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D436" s="6"/>
+      <c r="D436" s="4"/>
     </row>
     <row r="437" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D437" s="6"/>
+      <c r="D437" s="4"/>
     </row>
     <row r="438" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D438" s="6"/>
+      <c r="D438" s="4"/>
     </row>
     <row r="439" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D439" s="6"/>
+      <c r="D439" s="4"/>
     </row>
     <row r="440" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D440" s="6"/>
+      <c r="D440" s="4"/>
     </row>
     <row r="441" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D441" s="6"/>
+      <c r="D441" s="4"/>
     </row>
     <row r="442" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D442" s="6"/>
+      <c r="D442" s="4"/>
     </row>
     <row r="443" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D443" s="6"/>
+      <c r="D443" s="4"/>
     </row>
     <row r="444" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D444" s="6"/>
+      <c r="D444" s="4"/>
     </row>
     <row r="445" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D445" s="6"/>
+      <c r="D445" s="4"/>
     </row>
     <row r="446" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D446" s="6"/>
+      <c r="D446" s="4"/>
     </row>
     <row r="447" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D447" s="6"/>
+      <c r="D447" s="4"/>
     </row>
     <row r="448" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D448" s="6"/>
+      <c r="D448" s="4"/>
     </row>
     <row r="449" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D449" s="6"/>
+      <c r="D449" s="4"/>
     </row>
     <row r="450" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D450" s="6"/>
+      <c r="D450" s="4"/>
     </row>
     <row r="451" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D451" s="6"/>
+      <c r="D451" s="4"/>
     </row>
     <row r="452" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D452" s="6"/>
+      <c r="D452" s="4"/>
     </row>
     <row r="453" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D453" s="6"/>
+      <c r="D453" s="4"/>
     </row>
     <row r="454" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D454" s="6"/>
+      <c r="D454" s="4"/>
     </row>
     <row r="455" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D455" s="6"/>
+      <c r="D455" s="4"/>
     </row>
     <row r="456" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D456" s="6"/>
+      <c r="D456" s="4"/>
     </row>
     <row r="457" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D457" s="6"/>
+      <c r="D457" s="4"/>
     </row>
     <row r="458" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D458" s="6"/>
+      <c r="D458" s="4"/>
     </row>
     <row r="459" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D459" s="6"/>
+      <c r="D459" s="4"/>
     </row>
     <row r="460" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D460" s="6"/>
+      <c r="D460" s="4"/>
     </row>
     <row r="461" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D461" s="6"/>
+      <c r="D461" s="4"/>
     </row>
     <row r="462" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D462" s="6"/>
+      <c r="D462" s="4"/>
     </row>
     <row r="463" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D463" s="6"/>
+      <c r="D463" s="4"/>
     </row>
     <row r="464" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D464" s="6"/>
+      <c r="D464" s="4"/>
     </row>
     <row r="465" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D465" s="6"/>
+      <c r="D465" s="4"/>
     </row>
     <row r="466" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D466" s="6"/>
+      <c r="D466" s="4"/>
     </row>
     <row r="467" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D467" s="6"/>
+      <c r="D467" s="4"/>
     </row>
     <row r="468" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D468" s="6"/>
+      <c r="D468" s="4"/>
     </row>
     <row r="469" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D469" s="6"/>
+      <c r="D469" s="4"/>
     </row>
     <row r="470" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D470" s="6"/>
+      <c r="D470" s="4"/>
     </row>
     <row r="471" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D471" s="6"/>
+      <c r="D471" s="4"/>
     </row>
     <row r="472" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D472" s="6"/>
+      <c r="D472" s="4"/>
     </row>
     <row r="473" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D473" s="6"/>
+      <c r="D473" s="4"/>
     </row>
     <row r="474" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D474" s="6"/>
+      <c r="D474" s="4"/>
     </row>
     <row r="475" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D475" s="6"/>
+      <c r="D475" s="4"/>
     </row>
     <row r="476" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D476" s="6"/>
+      <c r="D476" s="4"/>
     </row>
     <row r="477" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D477" s="6"/>
+      <c r="D477" s="4"/>
     </row>
     <row r="478" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D478" s="6"/>
+      <c r="D478" s="4"/>
     </row>
     <row r="479" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D479" s="6"/>
+      <c r="D479" s="4"/>
     </row>
     <row r="480" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D480" s="6"/>
+      <c r="D480" s="4"/>
     </row>
     <row r="481" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D481" s="6"/>
+      <c r="D481" s="4"/>
     </row>
     <row r="482" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D482" s="6"/>
+      <c r="D482" s="4"/>
     </row>
     <row r="483" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D483" s="6"/>
+      <c r="D483" s="4"/>
     </row>
     <row r="484" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D484" s="6"/>
+      <c r="D484" s="4"/>
     </row>
     <row r="485" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D485" s="6"/>
+      <c r="D485" s="4"/>
     </row>
     <row r="486" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D486" s="6"/>
+      <c r="D486" s="4"/>
     </row>
     <row r="487" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D487" s="6"/>
+      <c r="D487" s="4"/>
     </row>
     <row r="488" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D488" s="6"/>
+      <c r="D488" s="4"/>
     </row>
     <row r="489" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D489" s="6"/>
+      <c r="D489" s="4"/>
     </row>
     <row r="490" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D490" s="6"/>
+      <c r="D490" s="4"/>
     </row>
     <row r="491" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D491" s="6"/>
+      <c r="D491" s="4"/>
     </row>
     <row r="492" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D492" s="6"/>
+      <c r="D492" s="4"/>
     </row>
     <row r="493" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D493" s="6"/>
+      <c r="D493" s="4"/>
     </row>
     <row r="494" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D494" s="6"/>
+      <c r="D494" s="4"/>
     </row>
     <row r="495" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D495" s="6"/>
+      <c r="D495" s="4"/>
     </row>
     <row r="496" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D496" s="6"/>
+      <c r="D496" s="4"/>
     </row>
     <row r="497" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D497" s="6"/>
+      <c r="D497" s="4"/>
     </row>
     <row r="498" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D498" s="6"/>
+      <c r="D498" s="4"/>
     </row>
     <row r="499" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D499" s="6"/>
+      <c r="D499" s="4"/>
     </row>
     <row r="500" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D500" s="6"/>
+      <c r="D500" s="4"/>
     </row>
     <row r="501" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D501" s="6"/>
+      <c r="D501" s="4"/>
     </row>
     <row r="502" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D502" s="6"/>
+      <c r="D502" s="4"/>
     </row>
     <row r="503" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D503" s="6"/>
+      <c r="D503" s="4"/>
     </row>
     <row r="504" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D504" s="6"/>
+      <c r="D504" s="4"/>
     </row>
     <row r="505" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D505" s="6"/>
+      <c r="D505" s="4"/>
     </row>
     <row r="506" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D506" s="6"/>
+      <c r="D506" s="4"/>
     </row>
     <row r="507" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D507" s="6"/>
+      <c r="D507" s="4"/>
     </row>
     <row r="508" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D508" s="6"/>
+      <c r="D508" s="4"/>
     </row>
     <row r="509" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D509" s="6"/>
+      <c r="D509" s="4"/>
     </row>
     <row r="510" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D510" s="6"/>
+      <c r="D510" s="4"/>
     </row>
     <row r="511" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D511" s="6"/>
+      <c r="D511" s="4"/>
     </row>
     <row r="512" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D512" s="6"/>
+      <c r="D512" s="4"/>
     </row>
     <row r="513" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D513" s="6"/>
+      <c r="D513" s="4"/>
     </row>
     <row r="514" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D514" s="6"/>
+      <c r="D514" s="4"/>
     </row>
     <row r="515" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D515" s="6"/>
+      <c r="D515" s="4"/>
     </row>
     <row r="516" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D516" s="6"/>
+      <c r="D516" s="4"/>
     </row>
     <row r="517" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D517" s="6"/>
+      <c r="D517" s="4"/>
     </row>
     <row r="518" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D518" s="6"/>
+      <c r="D518" s="4"/>
     </row>
     <row r="519" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D519" s="6"/>
+      <c r="D519" s="4"/>
     </row>
     <row r="520" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D520" s="6"/>
+      <c r="D520" s="4"/>
     </row>
     <row r="521" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D521" s="6"/>
+      <c r="D521" s="4"/>
     </row>
     <row r="522" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D522" s="6"/>
+      <c r="D522" s="4"/>
     </row>
     <row r="523" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D523" s="6"/>
+      <c r="D523" s="4"/>
     </row>
     <row r="524" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D524" s="6"/>
+      <c r="D524" s="4"/>
     </row>
     <row r="525" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D525" s="6"/>
+      <c r="D525" s="4"/>
     </row>
     <row r="526" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D526" s="6"/>
+      <c r="D526" s="4"/>
     </row>
     <row r="527" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D527" s="6"/>
+      <c r="D527" s="4"/>
     </row>
     <row r="528" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D528" s="6"/>
+      <c r="D528" s="4"/>
     </row>
     <row r="529" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D529" s="6"/>
+      <c r="D529" s="4"/>
     </row>
     <row r="530" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D530" s="6"/>
+      <c r="D530" s="4"/>
     </row>
     <row r="531" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D531" s="6"/>
+      <c r="D531" s="4"/>
     </row>
     <row r="532" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D532" s="6"/>
+      <c r="D532" s="4"/>
     </row>
     <row r="533" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D533" s="6"/>
+      <c r="D533" s="4"/>
     </row>
     <row r="534" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D534" s="6"/>
+      <c r="D534" s="4"/>
     </row>
     <row r="535" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D535" s="6"/>
+      <c r="D535" s="4"/>
     </row>
     <row r="536" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D536" s="6"/>
+      <c r="D536" s="4"/>
     </row>
     <row r="537" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D537" s="6"/>
+      <c r="D537" s="4"/>
     </row>
     <row r="538" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D538" s="6"/>
+      <c r="D538" s="4"/>
     </row>
     <row r="539" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D539" s="6"/>
+      <c r="D539" s="4"/>
     </row>
     <row r="540" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D540" s="6"/>
+      <c r="D540" s="4"/>
     </row>
     <row r="541" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D541" s="6"/>
+      <c r="D541" s="4"/>
     </row>
     <row r="542" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D542" s="6"/>
+      <c r="D542" s="4"/>
     </row>
     <row r="543" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D543" s="6"/>
+      <c r="D543" s="4"/>
     </row>
     <row r="544" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D544" s="6"/>
+      <c r="D544" s="4"/>
     </row>
     <row r="545" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D545" s="6"/>
+      <c r="D545" s="4"/>
     </row>
     <row r="546" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D546" s="6"/>
+      <c r="D546" s="4"/>
     </row>
     <row r="547" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D547" s="6"/>
+      <c r="D547" s="4"/>
     </row>
     <row r="548" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D548" s="6"/>
+      <c r="D548" s="4"/>
     </row>
     <row r="549" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D549" s="6"/>
+      <c r="D549" s="4"/>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D550" s="6"/>
+      <c r="D550" s="4"/>
     </row>
     <row r="551" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D551" s="6"/>
+      <c r="D551" s="4"/>
     </row>
     <row r="552" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D552" s="6"/>
+      <c r="D552" s="4"/>
     </row>
     <row r="553" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D553" s="6"/>
+      <c r="D553" s="4"/>
     </row>
     <row r="554" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D554" s="6"/>
+      <c r="D554" s="4"/>
     </row>
     <row r="555" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D555" s="6"/>
+      <c r="D555" s="4"/>
     </row>
     <row r="556" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D556" s="6"/>
+      <c r="D556" s="4"/>
     </row>
     <row r="557" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D557" s="6"/>
+      <c r="D557" s="4"/>
     </row>
     <row r="558" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D558" s="6"/>
+      <c r="D558" s="4"/>
     </row>
     <row r="559" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D559" s="6"/>
+      <c r="D559" s="4"/>
     </row>
     <row r="560" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D560" s="6"/>
+      <c r="D560" s="4"/>
     </row>
     <row r="561" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D561" s="6"/>
+      <c r="D561" s="4"/>
     </row>
     <row r="562" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D562" s="6"/>
+      <c r="D562" s="4"/>
     </row>
     <row r="563" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D563" s="6"/>
+      <c r="D563" s="4"/>
     </row>
     <row r="564" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D564" s="6"/>
+      <c r="D564" s="4"/>
     </row>
     <row r="565" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D565" s="6"/>
+      <c r="D565" s="4"/>
     </row>
     <row r="566" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D566" s="6"/>
+      <c r="D566" s="4"/>
     </row>
     <row r="567" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D567" s="6"/>
+      <c r="D567" s="4"/>
     </row>
     <row r="568" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D568" s="6"/>
+      <c r="D568" s="4"/>
     </row>
     <row r="569" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D569" s="6"/>
+      <c r="D569" s="4"/>
     </row>
     <row r="570" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D570" s="6"/>
+      <c r="D570" s="4"/>
     </row>
     <row r="571" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D571" s="6"/>
+      <c r="D571" s="4"/>
     </row>
     <row r="572" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D572" s="6"/>
+      <c r="D572" s="4"/>
     </row>
     <row r="573" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D573" s="6"/>
+      <c r="D573" s="4"/>
     </row>
     <row r="574" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D574" s="6"/>
+      <c r="D574" s="4"/>
     </row>
     <row r="575" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D575" s="6"/>
+      <c r="D575" s="4"/>
     </row>
     <row r="576" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D576" s="6"/>
+      <c r="D576" s="4"/>
     </row>
     <row r="577" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D577" s="6"/>
+      <c r="D577" s="4"/>
     </row>
     <row r="578" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D578" s="6"/>
+      <c r="D578" s="4"/>
     </row>
     <row r="579" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D579" s="6"/>
+      <c r="D579" s="4"/>
     </row>
     <row r="580" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D580" s="6"/>
+      <c r="D580" s="4"/>
     </row>
     <row r="581" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D581" s="6"/>
+      <c r="D581" s="4"/>
     </row>
     <row r="582" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D582" s="6"/>
+      <c r="D582" s="4"/>
     </row>
     <row r="583" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D583" s="6"/>
+      <c r="D583" s="4"/>
     </row>
     <row r="584" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D584" s="6"/>
+      <c r="D584" s="4"/>
     </row>
     <row r="585" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D585" s="6"/>
+      <c r="D585" s="4"/>
     </row>
     <row r="586" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D586" s="6"/>
+      <c r="D586" s="4"/>
     </row>
     <row r="587" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D587" s="6"/>
+      <c r="D587" s="4"/>
     </row>
     <row r="588" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D588" s="6"/>
+      <c r="D588" s="4"/>
     </row>
     <row r="589" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D589" s="6"/>
+      <c r="D589" s="4"/>
     </row>
     <row r="590" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D590" s="6"/>
+      <c r="D590" s="4"/>
     </row>
     <row r="591" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D591" s="6"/>
+      <c r="D591" s="4"/>
     </row>
     <row r="592" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D592" s="6"/>
+      <c r="D592" s="4"/>
     </row>
     <row r="593" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D593" s="6"/>
+      <c r="D593" s="4"/>
     </row>
     <row r="594" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D594" s="6"/>
+      <c r="D594" s="4"/>
     </row>
     <row r="595" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D595" s="6"/>
+      <c r="D595" s="4"/>
     </row>
     <row r="596" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D596" s="6"/>
+      <c r="D596" s="4"/>
     </row>
     <row r="597" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D597" s="6"/>
+      <c r="D597" s="4"/>
     </row>
     <row r="598" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D598" s="6"/>
+      <c r="D598" s="4"/>
     </row>
     <row r="599" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D599" s="6"/>
+      <c r="D599" s="4"/>
     </row>
     <row r="600" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D600" s="6"/>
+      <c r="D600" s="4"/>
     </row>
     <row r="601" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D601" s="6"/>
+      <c r="D601" s="4"/>
     </row>
     <row r="602" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D602" s="6"/>
+      <c r="D602" s="4"/>
     </row>
     <row r="603" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D603" s="6"/>
+      <c r="D603" s="4"/>
     </row>
     <row r="604" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D604" s="6"/>
+      <c r="D604" s="4"/>
     </row>
     <row r="605" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D605" s="6"/>
+      <c r="D605" s="4"/>
     </row>
     <row r="606" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D606" s="6"/>
+      <c r="D606" s="4"/>
     </row>
     <row r="607" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D607" s="6"/>
+      <c r="D607" s="4"/>
     </row>
     <row r="608" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D608" s="6"/>
+      <c r="D608" s="4"/>
     </row>
     <row r="609" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D609" s="6"/>
+      <c r="D609" s="4"/>
     </row>
     <row r="610" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D610" s="6"/>
+      <c r="D610" s="4"/>
     </row>
     <row r="611" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D611" s="6"/>
+      <c r="D611" s="4"/>
     </row>
     <row r="612" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D612" s="6"/>
+      <c r="D612" s="4"/>
     </row>
     <row r="613" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D613" s="6"/>
+      <c r="D613" s="4"/>
     </row>
     <row r="614" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D614" s="6"/>
+      <c r="D614" s="4"/>
     </row>
     <row r="615" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D615" s="6"/>
+      <c r="D615" s="4"/>
     </row>
     <row r="616" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D616" s="6"/>
+      <c r="D616" s="4"/>
     </row>
     <row r="617" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D617" s="6"/>
+      <c r="D617" s="4"/>
     </row>
     <row r="618" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D618" s="6"/>
+      <c r="D618" s="4"/>
     </row>
     <row r="619" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D619" s="6"/>
+      <c r="D619" s="4"/>
     </row>
     <row r="620" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D620" s="6"/>
+      <c r="D620" s="4"/>
     </row>
     <row r="621" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D621" s="6"/>
+      <c r="D621" s="4"/>
     </row>
     <row r="622" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D622" s="6"/>
+      <c r="D622" s="4"/>
     </row>
     <row r="623" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D623" s="6"/>
+      <c r="D623" s="4"/>
     </row>
     <row r="624" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D624" s="6"/>
+      <c r="D624" s="4"/>
     </row>
     <row r="625" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D625" s="6"/>
+      <c r="D625" s="4"/>
     </row>
     <row r="626" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D626" s="6"/>
+      <c r="D626" s="4"/>
     </row>
     <row r="627" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D627" s="6"/>
+      <c r="D627" s="4"/>
     </row>
     <row r="628" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D628" s="6"/>
+      <c r="D628" s="4"/>
     </row>
     <row r="629" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D629" s="6"/>
+      <c r="D629" s="4"/>
     </row>
     <row r="630" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D630" s="6"/>
+      <c r="D630" s="4"/>
     </row>
     <row r="631" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D631" s="6"/>
+      <c r="D631" s="4"/>
     </row>
     <row r="632" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D632" s="6"/>
+      <c r="D632" s="4"/>
     </row>
     <row r="633" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D633" s="6"/>
+      <c r="D633" s="4"/>
     </row>
     <row r="634" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D634" s="6"/>
+      <c r="D634" s="4"/>
     </row>
     <row r="635" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D635" s="6"/>
+      <c r="D635" s="4"/>
     </row>
     <row r="636" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D636" s="6"/>
+      <c r="D636" s="4"/>
     </row>
     <row r="637" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D637" s="6"/>
+      <c r="D637" s="4"/>
     </row>
     <row r="638" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D638" s="6"/>
+      <c r="D638" s="4"/>
     </row>
     <row r="639" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D639" s="6"/>
+      <c r="D639" s="4"/>
     </row>
     <row r="640" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D640" s="6"/>
+      <c r="D640" s="4"/>
     </row>
     <row r="641" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D641" s="6"/>
+      <c r="D641" s="4"/>
     </row>
     <row r="642" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D642" s="6"/>
+      <c r="D642" s="4"/>
     </row>
     <row r="643" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D643" s="6"/>
+      <c r="D643" s="4"/>
     </row>
     <row r="644" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D644" s="6"/>
+      <c r="D644" s="4"/>
     </row>
     <row r="645" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D645" s="6"/>
+      <c r="D645" s="4"/>
     </row>
     <row r="646" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D646" s="6"/>
+      <c r="D646" s="4"/>
     </row>
     <row r="647" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D647" s="6"/>
+      <c r="D647" s="4"/>
     </row>
     <row r="648" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D648" s="6"/>
+      <c r="D648" s="4"/>
     </row>
     <row r="649" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D649" s="6"/>
+      <c r="D649" s="4"/>
     </row>
     <row r="650" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D650" s="6"/>
+      <c r="D650" s="4"/>
     </row>
     <row r="651" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D651" s="6"/>
+      <c r="D651" s="4"/>
     </row>
     <row r="652" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D652" s="6"/>
+      <c r="D652" s="4"/>
     </row>
     <row r="653" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D653" s="6"/>
+      <c r="D653" s="4"/>
     </row>
     <row r="654" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D654" s="6"/>
+      <c r="D654" s="4"/>
     </row>
     <row r="655" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D655" s="6"/>
+      <c r="D655" s="4"/>
     </row>
     <row r="656" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D656" s="6"/>
+      <c r="D656" s="4"/>
     </row>
     <row r="657" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D657" s="6"/>
+      <c r="D657" s="4"/>
     </row>
     <row r="658" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D658" s="6"/>
+      <c r="D658" s="4"/>
     </row>
     <row r="659" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D659" s="6"/>
+      <c r="D659" s="4"/>
     </row>
     <row r="660" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D660" s="6"/>
+      <c r="D660" s="4"/>
     </row>
     <row r="661" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D661" s="6"/>
+      <c r="D661" s="4"/>
     </row>
     <row r="662" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D662" s="6"/>
+      <c r="D662" s="4"/>
     </row>
     <row r="663" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D663" s="6"/>
+      <c r="D663" s="4"/>
     </row>
     <row r="664" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D664" s="6"/>
+      <c r="D664" s="4"/>
     </row>
     <row r="665" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D665" s="6"/>
+      <c r="D665" s="4"/>
     </row>
     <row r="666" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D666" s="6"/>
+      <c r="D666" s="4"/>
     </row>
     <row r="667" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D667" s="6"/>
+      <c r="D667" s="4"/>
     </row>
     <row r="668" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D668" s="6"/>
+      <c r="D668" s="4"/>
     </row>
     <row r="669" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D669" s="6"/>
+      <c r="D669" s="4"/>
     </row>
     <row r="670" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D670" s="6"/>
+      <c r="D670" s="4"/>
     </row>
     <row r="671" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D671" s="6"/>
+      <c r="D671" s="4"/>
     </row>
     <row r="672" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D672" s="6"/>
+      <c r="D672" s="4"/>
     </row>
     <row r="673" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D673" s="6"/>
+      <c r="D673" s="4"/>
     </row>
     <row r="674" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D674" s="6"/>
+      <c r="D674" s="4"/>
     </row>
     <row r="675" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D675" s="6"/>
+      <c r="D675" s="4"/>
     </row>
     <row r="676" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D676" s="6"/>
+      <c r="D676" s="4"/>
     </row>
     <row r="677" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D677" s="6"/>
+      <c r="D677" s="4"/>
     </row>
     <row r="678" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D678" s="6"/>
+      <c r="D678" s="4"/>
     </row>
     <row r="679" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D679" s="6"/>
+      <c r="D679" s="4"/>
     </row>
     <row r="680" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D680" s="6"/>
+      <c r="D680" s="4"/>
     </row>
     <row r="681" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D681" s="6"/>
+      <c r="D681" s="4"/>
     </row>
     <row r="682" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D682" s="6"/>
+      <c r="D682" s="4"/>
     </row>
     <row r="683" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D683" s="6"/>
+      <c r="D683" s="4"/>
     </row>
     <row r="684" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D684" s="6"/>
+      <c r="D684" s="4"/>
     </row>
     <row r="685" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D685" s="6"/>
+      <c r="D685" s="4"/>
     </row>
     <row r="686" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D686" s="6"/>
+      <c r="D686" s="4"/>
     </row>
     <row r="687" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D687" s="6"/>
+      <c r="D687" s="4"/>
     </row>
     <row r="688" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D688" s="6"/>
+      <c r="D688" s="4"/>
     </row>
     <row r="689" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D689" s="6"/>
+      <c r="D689" s="4"/>
     </row>
     <row r="690" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D690" s="6"/>
+      <c r="D690" s="4"/>
     </row>
     <row r="691" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D691" s="6"/>
+      <c r="D691" s="4"/>
     </row>
     <row r="692" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D692" s="6"/>
+      <c r="D692" s="4"/>
     </row>
     <row r="693" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D693" s="6"/>
+      <c r="D693" s="4"/>
     </row>
     <row r="694" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D694" s="6"/>
+      <c r="D694" s="4"/>
     </row>
     <row r="695" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D695" s="6"/>
+      <c r="D695" s="4"/>
     </row>
     <row r="696" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D696" s="6"/>
+      <c r="D696" s="4"/>
     </row>
     <row r="697" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D697" s="6"/>
+      <c r="D697" s="4"/>
     </row>
     <row r="698" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D698" s="6"/>
+      <c r="D698" s="4"/>
     </row>
     <row r="699" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D699" s="6"/>
+      <c r="D699" s="4"/>
     </row>
     <row r="700" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D700" s="6"/>
+      <c r="D700" s="4"/>
     </row>
     <row r="701" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D701" s="6"/>
+      <c r="D701" s="4"/>
     </row>
     <row r="702" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D702" s="6"/>
+      <c r="D702" s="4"/>
     </row>
     <row r="703" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D703" s="6"/>
+      <c r="D703" s="4"/>
     </row>
     <row r="704" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D704" s="6"/>
+      <c r="D704" s="4"/>
     </row>
     <row r="705" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D705" s="6"/>
+      <c r="D705" s="4"/>
     </row>
     <row r="706" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D706" s="6"/>
+      <c r="D706" s="4"/>
     </row>
     <row r="707" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D707" s="6"/>
+      <c r="D707" s="4"/>
     </row>
     <row r="708" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D708" s="6"/>
+      <c r="D708" s="4"/>
     </row>
     <row r="709" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D709" s="6"/>
+      <c r="D709" s="4"/>
     </row>
     <row r="710" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D710" s="6"/>
+      <c r="D710" s="4"/>
     </row>
     <row r="711" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D711" s="6"/>
+      <c r="D711" s="4"/>
     </row>
     <row r="712" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D712" s="6"/>
+      <c r="D712" s="4"/>
     </row>
     <row r="713" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D713" s="6"/>
+      <c r="D713" s="4"/>
     </row>
     <row r="714" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D714" s="6"/>
+      <c r="D714" s="4"/>
     </row>
     <row r="715" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D715" s="6"/>
+      <c r="D715" s="4"/>
     </row>
     <row r="716" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D716" s="6"/>
+      <c r="D716" s="4"/>
     </row>
     <row r="717" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D717" s="6"/>
+      <c r="D717" s="4"/>
     </row>
     <row r="718" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D718" s="6"/>
+      <c r="D718" s="4"/>
     </row>
     <row r="719" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D719" s="6"/>
+      <c r="D719" s="4"/>
     </row>
     <row r="720" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D720" s="6"/>
+      <c r="D720" s="4"/>
     </row>
     <row r="721" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D721" s="6"/>
+      <c r="D721" s="4"/>
     </row>
     <row r="722" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D722" s="6"/>
+      <c r="D722" s="4"/>
     </row>
     <row r="723" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D723" s="6"/>
+      <c r="D723" s="4"/>
     </row>
     <row r="724" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D724" s="6"/>
+      <c r="D724" s="4"/>
     </row>
     <row r="725" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D725" s="6"/>
+      <c r="D725" s="4"/>
     </row>
     <row r="726" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D726" s="6"/>
+      <c r="D726" s="4"/>
     </row>
     <row r="727" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D727" s="6"/>
+      <c r="D727" s="4"/>
     </row>
     <row r="728" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D728" s="6"/>
+      <c r="D728" s="4"/>
     </row>
     <row r="729" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D729" s="6"/>
+      <c r="D729" s="4"/>
     </row>
     <row r="730" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D730" s="6"/>
+      <c r="D730" s="4"/>
     </row>
     <row r="731" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D731" s="6"/>
+      <c r="D731" s="4"/>
     </row>
     <row r="732" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D732" s="6"/>
+      <c r="D732" s="4"/>
     </row>
     <row r="733" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D733" s="6"/>
+      <c r="D733" s="4"/>
     </row>
     <row r="734" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D734" s="6"/>
+      <c r="D734" s="4"/>
     </row>
     <row r="735" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D735" s="6"/>
+      <c r="D735" s="4"/>
     </row>
     <row r="736" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D736" s="6"/>
+      <c r="D736" s="4"/>
     </row>
     <row r="737" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D737" s="6"/>
+      <c r="D737" s="4"/>
     </row>
     <row r="738" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D738" s="6"/>
+      <c r="D738" s="4"/>
     </row>
     <row r="739" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D739" s="6"/>
+      <c r="D739" s="4"/>
     </row>
     <row r="740" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D740" s="6"/>
+      <c r="D740" s="4"/>
     </row>
     <row r="741" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D741" s="6"/>
+      <c r="D741" s="4"/>
     </row>
     <row r="742" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D742" s="6"/>
+      <c r="D742" s="4"/>
     </row>
     <row r="743" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D743" s="6"/>
+      <c r="D743" s="4"/>
     </row>
     <row r="744" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D744" s="6"/>
+      <c r="D744" s="4"/>
     </row>
     <row r="745" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D745" s="6"/>
+      <c r="D745" s="4"/>
     </row>
     <row r="746" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D746" s="6"/>
+      <c r="D746" s="4"/>
     </row>
     <row r="747" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D747" s="6"/>
+      <c r="D747" s="4"/>
     </row>
     <row r="748" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D748" s="6"/>
+      <c r="D748" s="4"/>
     </row>
     <row r="749" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D749" s="6"/>
+      <c r="D749" s="4"/>
     </row>
     <row r="750" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D750" s="6"/>
+      <c r="D750" s="4"/>
     </row>
     <row r="751" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D751" s="6"/>
+      <c r="D751" s="4"/>
     </row>
     <row r="752" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D752" s="6"/>
+      <c r="D752" s="4"/>
     </row>
     <row r="753" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D753" s="6"/>
+      <c r="D753" s="4"/>
     </row>
     <row r="754" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D754" s="6"/>
+      <c r="D754" s="4"/>
     </row>
     <row r="755" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D755" s="6"/>
+      <c r="D755" s="4"/>
     </row>
     <row r="756" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D756" s="6"/>
+      <c r="D756" s="4"/>
     </row>
     <row r="757" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D757" s="6"/>
+      <c r="D757" s="4"/>
     </row>
     <row r="758" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D758" s="6"/>
+      <c r="D758" s="4"/>
     </row>
     <row r="759" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D759" s="6"/>
+      <c r="D759" s="4"/>
     </row>
     <row r="760" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D760" s="6"/>
+      <c r="D760" s="4"/>
     </row>
     <row r="761" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D761" s="6"/>
+      <c r="D761" s="4"/>
     </row>
     <row r="762" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D762" s="6"/>
+      <c r="D762" s="4"/>
     </row>
     <row r="763" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D763" s="6"/>
+      <c r="D763" s="4"/>
     </row>
     <row r="764" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D764" s="6"/>
+      <c r="D764" s="4"/>
     </row>
     <row r="765" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D765" s="6"/>
+      <c r="D765" s="4"/>
     </row>
     <row r="766" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D766" s="6"/>
+      <c r="D766" s="4"/>
     </row>
     <row r="767" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D767" s="6"/>
+      <c r="D767" s="4"/>
     </row>
     <row r="768" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D768" s="6"/>
+      <c r="D768" s="4"/>
     </row>
     <row r="769" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D769" s="6"/>
+      <c r="D769" s="4"/>
     </row>
     <row r="770" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D770" s="6"/>
+      <c r="D770" s="4"/>
     </row>
     <row r="771" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D771" s="6"/>
+      <c r="D771" s="4"/>
     </row>
     <row r="772" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D772" s="6"/>
+      <c r="D772" s="4"/>
     </row>
     <row r="773" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D773" s="6"/>
+      <c r="D773" s="4"/>
     </row>
     <row r="774" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D774" s="6"/>
+      <c r="D774" s="4"/>
     </row>
     <row r="775" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D775" s="6"/>
+      <c r="D775" s="4"/>
     </row>
     <row r="776" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D776" s="6"/>
+      <c r="D776" s="4"/>
     </row>
     <row r="777" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D777" s="6"/>
+      <c r="D777" s="4"/>
     </row>
     <row r="778" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D778" s="6"/>
+      <c r="D778" s="4"/>
     </row>
     <row r="779" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D779" s="6"/>
+      <c r="D779" s="4"/>
     </row>
     <row r="780" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D780" s="6"/>
+      <c r="D780" s="4"/>
     </row>
     <row r="781" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D781" s="6"/>
+      <c r="D781" s="4"/>
     </row>
     <row r="782" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D782" s="6"/>
+      <c r="D782" s="4"/>
     </row>
     <row r="783" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D783" s="6"/>
+      <c r="D783" s="4"/>
     </row>
     <row r="784" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D784" s="6"/>
+      <c r="D784" s="4"/>
     </row>
     <row r="785" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D785" s="6"/>
+      <c r="D785" s="4"/>
     </row>
     <row r="786" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D786" s="6"/>
+      <c r="D786" s="4"/>
     </row>
     <row r="787" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D787" s="6"/>
+      <c r="D787" s="4"/>
     </row>
     <row r="788" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D788" s="6"/>
+      <c r="D788" s="4"/>
     </row>
     <row r="789" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D789" s="6"/>
+      <c r="D789" s="4"/>
     </row>
     <row r="790" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D790" s="6"/>
+      <c r="D790" s="4"/>
     </row>
     <row r="791" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D791" s="6"/>
+      <c r="D791" s="4"/>
     </row>
     <row r="792" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D792" s="6"/>
+      <c r="D792" s="4"/>
     </row>
     <row r="793" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D793" s="6"/>
+      <c r="D793" s="4"/>
     </row>
     <row r="794" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D794" s="6"/>
+      <c r="D794" s="4"/>
     </row>
     <row r="795" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D795" s="6"/>
+      <c r="D795" s="4"/>
     </row>
     <row r="796" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D796" s="6"/>
+      <c r="D796" s="4"/>
     </row>
     <row r="797" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D797" s="6"/>
+      <c r="D797" s="4"/>
     </row>
     <row r="798" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D798" s="6"/>
+      <c r="D798" s="4"/>
     </row>
     <row r="799" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D799" s="6"/>
+      <c r="D799" s="4"/>
     </row>
     <row r="800" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D800" s="6"/>
+      <c r="D800" s="4"/>
     </row>
     <row r="801" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D801" s="6"/>
+      <c r="D801" s="4"/>
     </row>
     <row r="802" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D802" s="6"/>
+      <c r="D802" s="4"/>
     </row>
     <row r="803" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D803" s="6"/>
+      <c r="D803" s="4"/>
     </row>
     <row r="804" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D804" s="6"/>
+      <c r="D804" s="4"/>
     </row>
     <row r="805" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D805" s="6"/>
+      <c r="D805" s="4"/>
     </row>
     <row r="806" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D806" s="6"/>
+      <c r="D806" s="4"/>
     </row>
     <row r="807" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D807" s="6"/>
+      <c r="D807" s="4"/>
     </row>
     <row r="808" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D808" s="6"/>
+      <c r="D808" s="4"/>
     </row>
     <row r="809" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D809" s="6"/>
+      <c r="D809" s="4"/>
     </row>
     <row r="810" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D810" s="6"/>
+      <c r="D810" s="4"/>
     </row>
     <row r="811" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D811" s="6"/>
+      <c r="D811" s="4"/>
     </row>
     <row r="812" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D812" s="6"/>
+      <c r="D812" s="4"/>
     </row>
     <row r="813" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D813" s="6"/>
+      <c r="D813" s="4"/>
     </row>
     <row r="814" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D814" s="6"/>
+      <c r="D814" s="4"/>
     </row>
     <row r="815" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D815" s="6"/>
+      <c r="D815" s="4"/>
     </row>
     <row r="816" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D816" s="6"/>
+      <c r="D816" s="4"/>
     </row>
     <row r="817" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D817" s="6"/>
+      <c r="D817" s="4"/>
     </row>
     <row r="818" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D818" s="6"/>
+      <c r="D818" s="4"/>
     </row>
     <row r="819" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D819" s="6"/>
+      <c r="D819" s="4"/>
     </row>
     <row r="820" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D820" s="6"/>
+      <c r="D820" s="4"/>
     </row>
     <row r="821" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D821" s="6"/>
+      <c r="D821" s="4"/>
     </row>
     <row r="822" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D822" s="6"/>
+      <c r="D822" s="4"/>
     </row>
     <row r="823" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D823" s="6"/>
+      <c r="D823" s="4"/>
     </row>
     <row r="824" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D824" s="6"/>
+      <c r="D824" s="4"/>
     </row>
     <row r="825" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D825" s="6"/>
+      <c r="D825" s="4"/>
     </row>
     <row r="826" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D826" s="6"/>
+      <c r="D826" s="4"/>
     </row>
     <row r="827" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D827" s="6"/>
+      <c r="D827" s="4"/>
     </row>
     <row r="828" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D828" s="6"/>
+      <c r="D828" s="4"/>
     </row>
     <row r="829" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D829" s="6"/>
+      <c r="D829" s="4"/>
     </row>
     <row r="830" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D830" s="6"/>
+      <c r="D830" s="4"/>
     </row>
     <row r="831" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D831" s="6"/>
+      <c r="D831" s="4"/>
     </row>
     <row r="832" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D832" s="6"/>
+      <c r="D832" s="4"/>
     </row>
     <row r="833" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D833" s="6"/>
+      <c r="D833" s="4"/>
     </row>
     <row r="834" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D834" s="6"/>
+      <c r="D834" s="4"/>
     </row>
     <row r="835" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D835" s="6"/>
+      <c r="D835" s="4"/>
     </row>
     <row r="836" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D836" s="6"/>
+      <c r="D836" s="4"/>
     </row>
     <row r="837" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D837" s="6"/>
+      <c r="D837" s="4"/>
     </row>
     <row r="838" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D838" s="6"/>
+      <c r="D838" s="4"/>
     </row>
     <row r="839" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D839" s="6"/>
+      <c r="D839" s="4"/>
     </row>
     <row r="840" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D840" s="6"/>
+      <c r="D840" s="4"/>
     </row>
     <row r="841" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D841" s="6"/>
+      <c r="D841" s="4"/>
     </row>
     <row r="842" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D842" s="6"/>
+      <c r="D842" s="4"/>
     </row>
     <row r="843" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D843" s="6"/>
+      <c r="D843" s="4"/>
     </row>
     <row r="844" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D844" s="6"/>
+      <c r="D844" s="4"/>
     </row>
     <row r="845" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D845" s="6"/>
+      <c r="D845" s="4"/>
     </row>
     <row r="846" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D846" s="6"/>
+      <c r="D846" s="4"/>
     </row>
     <row r="847" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D847" s="6"/>
+      <c r="D847" s="4"/>
     </row>
     <row r="848" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D848" s="6"/>
+      <c r="D848" s="4"/>
     </row>
     <row r="849" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D849" s="6"/>
+      <c r="D849" s="4"/>
     </row>
     <row r="850" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D850" s="6"/>
+      <c r="D850" s="4"/>
     </row>
     <row r="851" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D851" s="6"/>
+      <c r="D851" s="4"/>
     </row>
     <row r="852" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D852" s="6"/>
+      <c r="D852" s="4"/>
     </row>
     <row r="853" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D853" s="6"/>
+      <c r="D853" s="4"/>
     </row>
     <row r="854" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D854" s="6"/>
+      <c r="D854" s="4"/>
     </row>
     <row r="855" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D855" s="6"/>
+      <c r="D855" s="4"/>
     </row>
     <row r="856" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D856" s="6"/>
+      <c r="D856" s="4"/>
     </row>
     <row r="857" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D857" s="6"/>
+      <c r="D857" s="4"/>
     </row>
     <row r="858" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D858" s="6"/>
+      <c r="D858" s="4"/>
     </row>
     <row r="859" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D859" s="6"/>
+      <c r="D859" s="4"/>
     </row>
     <row r="860" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D860" s="6"/>
+      <c r="D860" s="4"/>
     </row>
     <row r="861" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D861" s="6"/>
+      <c r="D861" s="4"/>
     </row>
     <row r="862" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D862" s="6"/>
+      <c r="D862" s="4"/>
     </row>
     <row r="863" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D863" s="6"/>
+      <c r="D863" s="4"/>
     </row>
     <row r="864" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D864" s="6"/>
+      <c r="D864" s="4"/>
     </row>
     <row r="865" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D865" s="6"/>
+      <c r="D865" s="4"/>
     </row>
     <row r="866" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D866" s="6"/>
+      <c r="D866" s="4"/>
     </row>
     <row r="867" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D867" s="6"/>
+      <c r="D867" s="4"/>
     </row>
     <row r="868" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D868" s="6"/>
+      <c r="D868" s="4"/>
     </row>
     <row r="869" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D869" s="6"/>
+      <c r="D869" s="4"/>
     </row>
     <row r="870" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D870" s="6"/>
+      <c r="D870" s="4"/>
     </row>
     <row r="871" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D871" s="6"/>
+      <c r="D871" s="4"/>
     </row>
     <row r="872" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D872" s="6"/>
+      <c r="D872" s="4"/>
     </row>
     <row r="873" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D873" s="6"/>
+      <c r="D873" s="4"/>
     </row>
     <row r="874" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D874" s="6"/>
+      <c r="D874" s="4"/>
     </row>
     <row r="875" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D875" s="6"/>
+      <c r="D875" s="4"/>
     </row>
     <row r="876" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D876" s="6"/>
+      <c r="D876" s="4"/>
     </row>
     <row r="877" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D877" s="6"/>
+      <c r="D877" s="4"/>
     </row>
     <row r="878" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D878" s="6"/>
+      <c r="D878" s="4"/>
     </row>
     <row r="879" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D879" s="6"/>
+      <c r="D879" s="4"/>
     </row>
     <row r="880" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D880" s="6"/>
+      <c r="D880" s="4"/>
     </row>
     <row r="881" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D881" s="6"/>
+      <c r="D881" s="4"/>
     </row>
     <row r="882" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D882" s="6"/>
+      <c r="D882" s="4"/>
     </row>
     <row r="883" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D883" s="6"/>
+      <c r="D883" s="4"/>
     </row>
     <row r="884" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D884" s="6"/>
+      <c r="D884" s="4"/>
     </row>
     <row r="885" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D885" s="6"/>
+      <c r="D885" s="4"/>
     </row>
     <row r="886" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D886" s="6"/>
+      <c r="D886" s="4"/>
     </row>
     <row r="887" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D887" s="6"/>
+      <c r="D887" s="4"/>
     </row>
     <row r="888" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D888" s="6"/>
+      <c r="D888" s="4"/>
     </row>
     <row r="889" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D889" s="6"/>
+      <c r="D889" s="4"/>
     </row>
     <row r="890" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D890" s="6"/>
+      <c r="D890" s="4"/>
     </row>
     <row r="891" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D891" s="6"/>
+      <c r="D891" s="4"/>
     </row>
     <row r="892" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D892" s="6"/>
+      <c r="D892" s="4"/>
     </row>
     <row r="893" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D893" s="6"/>
+      <c r="D893" s="4"/>
     </row>
     <row r="894" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D894" s="6"/>
+      <c r="D894" s="4"/>
     </row>
     <row r="895" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D895" s="6"/>
+      <c r="D895" s="4"/>
     </row>
     <row r="896" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D896" s="6"/>
+      <c r="D896" s="4"/>
     </row>
     <row r="897" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D897" s="6"/>
+      <c r="D897" s="4"/>
     </row>
     <row r="898" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D898" s="6"/>
+      <c r="D898" s="4"/>
     </row>
     <row r="899" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D899" s="6"/>
+      <c r="D899" s="4"/>
     </row>
     <row r="900" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D900" s="6"/>
+      <c r="D900" s="4"/>
     </row>
     <row r="901" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D901" s="6"/>
+      <c r="D901" s="4"/>
     </row>
     <row r="902" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D902" s="6"/>
+      <c r="D902" s="4"/>
     </row>
     <row r="903" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D903" s="6"/>
+      <c r="D903" s="4"/>
     </row>
     <row r="904" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D904" s="6"/>
+      <c r="D904" s="4"/>
     </row>
     <row r="905" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D905" s="6"/>
+      <c r="D905" s="4"/>
     </row>
     <row r="906" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D906" s="6"/>
+      <c r="D906" s="4"/>
     </row>
     <row r="907" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D907" s="6"/>
+      <c r="D907" s="4"/>
     </row>
     <row r="908" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D908" s="6"/>
+      <c r="D908" s="4"/>
     </row>
     <row r="909" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D909" s="6"/>
+      <c r="D909" s="4"/>
     </row>
     <row r="910" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D910" s="6"/>
+      <c r="D910" s="4"/>
     </row>
     <row r="911" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D911" s="6"/>
+      <c r="D911" s="4"/>
     </row>
     <row r="912" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D912" s="6"/>
+      <c r="D912" s="4"/>
     </row>
     <row r="913" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D913" s="6"/>
+      <c r="D913" s="4"/>
     </row>
     <row r="914" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D914" s="6"/>
+      <c r="D914" s="4"/>
     </row>
     <row r="915" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D915" s="6"/>
+      <c r="D915" s="4"/>
     </row>
     <row r="916" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D916" s="6"/>
+      <c r="D916" s="4"/>
     </row>
     <row r="917" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D917" s="6"/>
+      <c r="D917" s="4"/>
     </row>
     <row r="918" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D918" s="6"/>
+      <c r="D918" s="4"/>
     </row>
     <row r="919" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D919" s="6"/>
+      <c r="D919" s="4"/>
     </row>
     <row r="920" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D920" s="6"/>
+      <c r="D920" s="4"/>
     </row>
     <row r="921" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D921" s="6"/>
+      <c r="D921" s="4"/>
     </row>
     <row r="922" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D922" s="6"/>
+      <c r="D922" s="4"/>
     </row>
     <row r="923" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D923" s="6"/>
+      <c r="D923" s="4"/>
     </row>
     <row r="924" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D924" s="6"/>
+      <c r="D924" s="4"/>
     </row>
     <row r="925" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D925" s="6"/>
+      <c r="D925" s="4"/>
     </row>
     <row r="926" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D926" s="6"/>
+      <c r="D926" s="4"/>
     </row>
     <row r="927" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D927" s="6"/>
+      <c r="D927" s="4"/>
     </row>
     <row r="928" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D928" s="6"/>
+      <c r="D928" s="4"/>
     </row>
     <row r="929" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D929" s="6"/>
+      <c r="D929" s="4"/>
     </row>
     <row r="930" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D930" s="6"/>
+      <c r="D930" s="4"/>
     </row>
     <row r="931" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D931" s="6"/>
+      <c r="D931" s="4"/>
     </row>
     <row r="932" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D932" s="6"/>
+      <c r="D932" s="4"/>
     </row>
     <row r="933" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D933" s="6"/>
+      <c r="D933" s="4"/>
     </row>
     <row r="934" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D934" s="6"/>
+      <c r="D934" s="4"/>
     </row>
     <row r="935" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D935" s="6"/>
+      <c r="D935" s="4"/>
     </row>
     <row r="936" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D936" s="6"/>
+      <c r="D936" s="4"/>
     </row>
     <row r="937" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D937" s="6"/>
+      <c r="D937" s="4"/>
     </row>
     <row r="938" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D938" s="6"/>
+      <c r="D938" s="4"/>
     </row>
     <row r="939" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D939" s="6"/>
+      <c r="D939" s="4"/>
     </row>
     <row r="940" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D940" s="6"/>
+      <c r="D940" s="4"/>
     </row>
     <row r="941" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D941" s="6"/>
+      <c r="D941" s="4"/>
     </row>
     <row r="942" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D942" s="6"/>
+      <c r="D942" s="4"/>
     </row>
     <row r="943" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D943" s="6"/>
+      <c r="D943" s="4"/>
     </row>
     <row r="944" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D944" s="6"/>
+      <c r="D944" s="4"/>
     </row>
     <row r="945" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D945" s="6"/>
+      <c r="D945" s="4"/>
     </row>
     <row r="946" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D946" s="6"/>
+      <c r="D946" s="4"/>
     </row>
     <row r="947" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D947" s="6"/>
+      <c r="D947" s="4"/>
     </row>
     <row r="948" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D948" s="6"/>
+      <c r="D948" s="4"/>
     </row>
     <row r="949" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D949" s="6"/>
+      <c r="D949" s="4"/>
     </row>
     <row r="950" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D950" s="6"/>
+      <c r="D950" s="4"/>
     </row>
     <row r="951" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D951" s="6"/>
+      <c r="D951" s="4"/>
     </row>
     <row r="952" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D952" s="6"/>
+      <c r="D952" s="4"/>
     </row>
     <row r="953" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D953" s="6"/>
+      <c r="D953" s="4"/>
     </row>
     <row r="954" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D954" s="6"/>
+      <c r="D954" s="4"/>
     </row>
     <row r="955" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D955" s="6"/>
+      <c r="D955" s="4"/>
     </row>
     <row r="956" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D956" s="6"/>
+      <c r="D956" s="4"/>
     </row>
     <row r="957" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D957" s="6"/>
+      <c r="D957" s="4"/>
     </row>
     <row r="958" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D958" s="6"/>
+      <c r="D958" s="4"/>
     </row>
     <row r="959" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D959" s="6"/>
+      <c r="D959" s="4"/>
     </row>
     <row r="960" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D960" s="6"/>
+      <c r="D960" s="4"/>
     </row>
     <row r="961" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D961" s="6"/>
+      <c r="D961" s="4"/>
     </row>
     <row r="962" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D962" s="6"/>
+      <c r="D962" s="4"/>
     </row>
     <row r="963" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D963" s="6"/>
+      <c r="D963" s="4"/>
     </row>
     <row r="964" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D964" s="6"/>
+      <c r="D964" s="4"/>
     </row>
     <row r="965" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D965" s="6"/>
+      <c r="D965" s="4"/>
     </row>
     <row r="966" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D966" s="6"/>
+      <c r="D966" s="4"/>
     </row>
     <row r="967" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D967" s="6"/>
+      <c r="D967" s="4"/>
     </row>
     <row r="968" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D968" s="6"/>
+      <c r="D968" s="4"/>
     </row>
     <row r="969" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D969" s="6"/>
+      <c r="D969" s="4"/>
     </row>
     <row r="970" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D970" s="6"/>
+      <c r="D970" s="4"/>
     </row>
     <row r="971" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D971" s="6"/>
+      <c r="D971" s="4"/>
     </row>
     <row r="972" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D972" s="6"/>
+      <c r="D972" s="4"/>
     </row>
     <row r="973" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D973" s="6"/>
+      <c r="D973" s="4"/>
     </row>
     <row r="974" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D974" s="6"/>
+      <c r="D974" s="4"/>
     </row>
     <row r="975" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D975" s="6"/>
+      <c r="D975" s="4"/>
     </row>
     <row r="976" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D976" s="6"/>
+      <c r="D976" s="4"/>
     </row>
     <row r="977" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D977" s="6"/>
+      <c r="D977" s="4"/>
     </row>
     <row r="978" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D978" s="6"/>
+      <c r="D978" s="4"/>
     </row>
     <row r="979" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D979" s="6"/>
+      <c r="D979" s="4"/>
     </row>
     <row r="980" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D980" s="6"/>
+      <c r="D980" s="4"/>
     </row>
     <row r="981" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D981" s="6"/>
+      <c r="D981" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9196,7 +9192,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:J1"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10332,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -10370,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -10408,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -10522,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
